--- a/results/GP_asteroid_predictions_at_1AU_as_irradiation12.xlsx
+++ b/results/GP_asteroid_predictions_at_1AU_as_irradiation12.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1302505088</v>
+        <v>1142373248</v>
       </c>
       <c r="C2" t="n">
-        <v>320610176</v>
+        <v>62896892</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1155035008</v>
+        <v>887250496</v>
       </c>
       <c r="C3" t="n">
-        <v>257334080</v>
+        <v>218824480</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1191469312</v>
+        <v>977818816</v>
       </c>
       <c r="C4" t="n">
-        <v>227266320</v>
+        <v>94119576</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991648000</v>
+        <v>995757056</v>
       </c>
       <c r="C5" t="n">
-        <v>213998128</v>
+        <v>341669664</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1313670528</v>
+        <v>1190386432</v>
       </c>
       <c r="C6" t="n">
-        <v>195218064</v>
+        <v>451789312</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1319987712</v>
+        <v>1435237248</v>
       </c>
       <c r="C7" t="n">
-        <v>309415424</v>
+        <v>460917408</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181341696</v>
+        <v>1224201088</v>
       </c>
       <c r="C8" t="n">
-        <v>164959408</v>
+        <v>381097344</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>640470720</v>
+        <v>754895424</v>
       </c>
       <c r="C9" t="n">
-        <v>135417408</v>
+        <v>324282368</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1023236096</v>
+        <v>1092703104</v>
       </c>
       <c r="C10" t="n">
-        <v>170450976</v>
+        <v>234219872</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1165302144</v>
+        <v>1124829568</v>
       </c>
       <c r="C11" t="n">
-        <v>271690592</v>
+        <v>112470920</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>728416448</v>
+        <v>564350400</v>
       </c>
       <c r="C12" t="n">
-        <v>163283568</v>
+        <v>137928928</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941585600</v>
+        <v>1005278464</v>
       </c>
       <c r="C13" t="n">
-        <v>151718896</v>
+        <v>165320800</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>835782912</v>
+        <v>872622784</v>
       </c>
       <c r="C14" t="n">
-        <v>216060688</v>
+        <v>159481712</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1192201856</v>
+        <v>1343621248</v>
       </c>
       <c r="C15" t="n">
-        <v>229411904</v>
+        <v>182955472</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>605863360</v>
+        <v>677530944</v>
       </c>
       <c r="C16" t="n">
-        <v>115550832</v>
+        <v>76898904</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>689479296</v>
+        <v>723101952</v>
       </c>
       <c r="C17" t="n">
-        <v>140241920</v>
+        <v>364755936</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931400256</v>
+        <v>923573952</v>
       </c>
       <c r="C18" t="n">
-        <v>202749136</v>
+        <v>139336400</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>553161088</v>
+        <v>533198592</v>
       </c>
       <c r="C19" t="n">
-        <v>158787968</v>
+        <v>221992144</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1033255616</v>
+        <v>1045718336</v>
       </c>
       <c r="C20" t="n">
-        <v>96778264</v>
+        <v>175621600</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>809773184</v>
+        <v>898872128</v>
       </c>
       <c r="C21" t="n">
-        <v>199996352</v>
+        <v>119858640</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1122786560</v>
+        <v>1002427968</v>
       </c>
       <c r="C22" t="n">
-        <v>178893312</v>
+        <v>109142528</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>945161408</v>
+        <v>855613120</v>
       </c>
       <c r="C23" t="n">
-        <v>228020928</v>
+        <v>96618944</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1549263616</v>
+        <v>1624163840</v>
       </c>
       <c r="C24" t="n">
-        <v>418350688</v>
+        <v>428997088</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1049578624</v>
+        <v>912594368</v>
       </c>
       <c r="C25" t="n">
-        <v>156287600</v>
+        <v>219756944</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>927368896</v>
+        <v>845729792</v>
       </c>
       <c r="C26" t="n">
-        <v>222896768</v>
+        <v>146044176</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>745684864</v>
+        <v>849790784</v>
       </c>
       <c r="C27" t="n">
-        <v>146950896</v>
+        <v>287115168</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085532416</v>
+        <v>1141312512</v>
       </c>
       <c r="C28" t="n">
-        <v>172126720</v>
+        <v>267408320</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1353908352</v>
+        <v>1319274880</v>
       </c>
       <c r="C29" t="n">
-        <v>298541472</v>
+        <v>151344512</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1159452032</v>
+        <v>1223454720</v>
       </c>
       <c r="C30" t="n">
-        <v>109703328</v>
+        <v>441275232</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811757376</v>
+        <v>1007709184</v>
       </c>
       <c r="C31" t="n">
-        <v>178392976</v>
+        <v>179475840</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1150464000</v>
+        <v>1159221248</v>
       </c>
       <c r="C32" t="n">
-        <v>163856368</v>
+        <v>315984448</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1680097664</v>
+        <v>1755150464</v>
       </c>
       <c r="C33" t="n">
-        <v>481454048</v>
+        <v>687793216</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>852974592</v>
+        <v>917027776</v>
       </c>
       <c r="C34" t="n">
-        <v>173881232</v>
+        <v>241657056</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1174304640</v>
+        <v>1126645632</v>
       </c>
       <c r="C35" t="n">
-        <v>116944968</v>
+        <v>274083584</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1179009024</v>
+        <v>1078426112</v>
       </c>
       <c r="C36" t="n">
-        <v>206221744</v>
+        <v>123545552</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>743786496</v>
+        <v>900973248</v>
       </c>
       <c r="C37" t="n">
-        <v>242331216</v>
+        <v>243931808</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1445238528</v>
+        <v>1282652416</v>
       </c>
       <c r="C38" t="n">
-        <v>500452992</v>
+        <v>327312640</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1119084544</v>
+        <v>946970560</v>
       </c>
       <c r="C39" t="n">
-        <v>190310288</v>
+        <v>315071488</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1053564032</v>
+        <v>1124732672</v>
       </c>
       <c r="C40" t="n">
-        <v>207372240</v>
+        <v>158855472</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>609895424</v>
+        <v>685429952</v>
       </c>
       <c r="C41" t="n">
-        <v>256909456</v>
+        <v>238967696</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959390912</v>
+        <v>1007839488</v>
       </c>
       <c r="C42" t="n">
-        <v>173949600</v>
+        <v>135355424</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789188992</v>
+        <v>739427392</v>
       </c>
       <c r="C43" t="n">
-        <v>92178248</v>
+        <v>273459040</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1120666624</v>
+        <v>886872000</v>
       </c>
       <c r="C44" t="n">
-        <v>232154480</v>
+        <v>182281632</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>967613824</v>
+        <v>1003178688</v>
       </c>
       <c r="C45" t="n">
-        <v>150253568</v>
+        <v>33551550</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1124379008</v>
+        <v>897180224</v>
       </c>
       <c r="C46" t="n">
-        <v>256034544</v>
+        <v>20280934</v>
       </c>
     </row>
     <row r="47">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1157433984</v>
+        <v>982777536</v>
       </c>
       <c r="C47" t="n">
-        <v>213737008</v>
+        <v>57144020</v>
       </c>
     </row>
     <row r="48">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>865286784</v>
+        <v>957770752</v>
       </c>
       <c r="C48" t="n">
-        <v>130578704</v>
+        <v>184516832</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1153686016</v>
+        <v>1302953856</v>
       </c>
       <c r="C49" t="n">
-        <v>161683824</v>
+        <v>348700384</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>932608704</v>
+        <v>862522112</v>
       </c>
       <c r="C50" t="n">
-        <v>205139936</v>
+        <v>201580912</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1505981824</v>
+        <v>1657060864</v>
       </c>
       <c r="C51" t="n">
-        <v>595154816</v>
+        <v>98475720</v>
       </c>
     </row>
     <row r="52">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>955518272</v>
+        <v>945428992</v>
       </c>
       <c r="C52" t="n">
-        <v>164579792</v>
+        <v>195363040</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>616918464</v>
+        <v>661161280</v>
       </c>
       <c r="C53" t="n">
-        <v>137693152</v>
+        <v>198092976</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1172362624</v>
+        <v>967553792</v>
       </c>
       <c r="C54" t="n">
-        <v>228177280</v>
+        <v>161610000</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>759296384</v>
+        <v>745233216</v>
       </c>
       <c r="C55" t="n">
-        <v>226072448</v>
+        <v>178960960</v>
       </c>
     </row>
     <row r="56">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>852028544</v>
+        <v>832623936</v>
       </c>
       <c r="C56" t="n">
-        <v>197557120</v>
+        <v>63409444</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1247024896</v>
+        <v>1267248256</v>
       </c>
       <c r="C57" t="n">
-        <v>329303200</v>
+        <v>240693120</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>805620864</v>
+        <v>845690048</v>
       </c>
       <c r="C58" t="n">
-        <v>133057784</v>
+        <v>132830944</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1021233472</v>
+        <v>1071745088</v>
       </c>
       <c r="C59" t="n">
-        <v>197960576</v>
+        <v>409430848</v>
       </c>
     </row>
     <row r="60">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1109402624</v>
+        <v>1102581120</v>
       </c>
       <c r="C60" t="n">
-        <v>146963584</v>
+        <v>213534368</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>469541376</v>
+        <v>419426208</v>
       </c>
       <c r="C61" t="n">
-        <v>215468352</v>
+        <v>218839936</v>
       </c>
     </row>
     <row r="62">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1121092352</v>
+        <v>1152825344</v>
       </c>
       <c r="C62" t="n">
-        <v>273737792</v>
+        <v>48577056</v>
       </c>
     </row>
     <row r="63">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>687161728</v>
+        <v>758910912</v>
       </c>
       <c r="C63" t="n">
-        <v>206460112</v>
+        <v>144173296</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1113146752</v>
+        <v>927300864</v>
       </c>
       <c r="C64" t="n">
-        <v>293497632</v>
+        <v>34714636</v>
       </c>
     </row>
     <row r="65">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1098624384</v>
+        <v>928641280</v>
       </c>
       <c r="C65" t="n">
-        <v>413208128</v>
+        <v>208167904</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1137116032</v>
+        <v>1257974400</v>
       </c>
       <c r="C66" t="n">
-        <v>266692800</v>
+        <v>393577024</v>
       </c>
     </row>
     <row r="67">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1093737088</v>
+        <v>1206306560</v>
       </c>
       <c r="C67" t="n">
-        <v>179035088</v>
+        <v>196959920</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>701825600</v>
+        <v>710847552</v>
       </c>
       <c r="C68" t="n">
-        <v>222786192</v>
+        <v>292330912</v>
       </c>
     </row>
     <row r="69">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1142434688</v>
+        <v>988531712</v>
       </c>
       <c r="C69" t="n">
-        <v>350222656</v>
+        <v>84869808</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1300580992</v>
+        <v>1419451264</v>
       </c>
       <c r="C70" t="n">
-        <v>424891776</v>
+        <v>76735336</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1048557824</v>
+        <v>990034688</v>
       </c>
       <c r="C71" t="n">
-        <v>349923936</v>
+        <v>140332720</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1231215872</v>
+        <v>1265595264</v>
       </c>
       <c r="C72" t="n">
-        <v>229416768</v>
+        <v>270000384</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1113453312</v>
+        <v>967638208</v>
       </c>
       <c r="C73" t="n">
-        <v>272729120</v>
+        <v>88851824</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1808663936</v>
+        <v>1833176960</v>
       </c>
       <c r="C74" t="n">
-        <v>559916096</v>
+        <v>795536960</v>
       </c>
     </row>
     <row r="75">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1188170112</v>
+        <v>1171710592</v>
       </c>
       <c r="C75" t="n">
-        <v>289504608</v>
+        <v>212967280</v>
       </c>
     </row>
     <row r="76">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1038911168</v>
+        <v>1156071552</v>
       </c>
       <c r="C76" t="n">
-        <v>119320976</v>
+        <v>142377200</v>
       </c>
     </row>
     <row r="77">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>533809760</v>
+        <v>640251712</v>
       </c>
       <c r="C77" t="n">
-        <v>293776672</v>
+        <v>304832992</v>
       </c>
     </row>
     <row r="78">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1169463552</v>
+        <v>1118907904</v>
       </c>
       <c r="C78" t="n">
-        <v>291740288</v>
+        <v>176199936</v>
       </c>
     </row>
     <row r="79">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1282166912</v>
+        <v>1462831104</v>
       </c>
       <c r="C79" t="n">
-        <v>345688736</v>
+        <v>386522016</v>
       </c>
     </row>
     <row r="80">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>754751872</v>
+        <v>782532800</v>
       </c>
       <c r="C80" t="n">
-        <v>253300800</v>
+        <v>126216600</v>
       </c>
     </row>
     <row r="81">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1001422016</v>
+        <v>827274240</v>
       </c>
       <c r="C81" t="n">
-        <v>185635264</v>
+        <v>298655872</v>
       </c>
     </row>
     <row r="82">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1482314112</v>
+        <v>1398807168</v>
       </c>
       <c r="C82" t="n">
-        <v>321181408</v>
+        <v>467023488</v>
       </c>
     </row>
     <row r="83">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>421290112</v>
+        <v>416133792</v>
       </c>
       <c r="C83" t="n">
-        <v>225641120</v>
+        <v>223827136</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>505234336</v>
+        <v>501226912</v>
       </c>
       <c r="C84" t="n">
-        <v>123660608</v>
+        <v>121825984</v>
       </c>
     </row>
     <row r="85">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1132526976</v>
+        <v>924065792</v>
       </c>
       <c r="C85" t="n">
-        <v>183597696</v>
+        <v>169528144</v>
       </c>
     </row>
     <row r="86">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1182411904</v>
+        <v>1147707904</v>
       </c>
       <c r="C86" t="n">
-        <v>195117104</v>
+        <v>211021920</v>
       </c>
     </row>
     <row r="87">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1138373376</v>
+        <v>1024851264</v>
       </c>
       <c r="C87" t="n">
-        <v>347640000</v>
+        <v>487072544</v>
       </c>
     </row>
     <row r="88">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>590429440</v>
+        <v>648201152</v>
       </c>
       <c r="C88" t="n">
-        <v>234628544</v>
+        <v>242882000</v>
       </c>
     </row>
     <row r="89">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1226687744</v>
+        <v>1370426240</v>
       </c>
       <c r="C89" t="n">
-        <v>339328416</v>
+        <v>147583920</v>
       </c>
     </row>
     <row r="90">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1248708736</v>
+        <v>1338073984</v>
       </c>
       <c r="C90" t="n">
-        <v>272885120</v>
+        <v>604606656</v>
       </c>
     </row>
     <row r="91">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1110224384</v>
+        <v>1121909760</v>
       </c>
       <c r="C91" t="n">
-        <v>130889864</v>
+        <v>320343840</v>
       </c>
     </row>
     <row r="92">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1133549056</v>
+        <v>1459871744</v>
       </c>
       <c r="C92" t="n">
-        <v>287429312</v>
+        <v>380365856</v>
       </c>
     </row>
     <row r="93">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1173598976</v>
+        <v>1290123904</v>
       </c>
       <c r="C93" t="n">
-        <v>331368096</v>
+        <v>173186688</v>
       </c>
     </row>
     <row r="94">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1042339072</v>
+        <v>861251008</v>
       </c>
       <c r="C94" t="n">
-        <v>323447232</v>
+        <v>203357392</v>
       </c>
     </row>
     <row r="95">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1076744192</v>
+        <v>1525303936</v>
       </c>
       <c r="C95" t="n">
-        <v>476435520</v>
+        <v>285862880</v>
       </c>
     </row>
     <row r="96">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>876904128</v>
+        <v>874815296</v>
       </c>
       <c r="C96" t="n">
-        <v>270071648</v>
+        <v>247492720</v>
       </c>
     </row>
     <row r="97">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1438267520</v>
+        <v>1350416512</v>
       </c>
       <c r="C97" t="n">
-        <v>353152640</v>
+        <v>450352160</v>
       </c>
     </row>
     <row r="98">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>426390144</v>
+        <v>442401184</v>
       </c>
       <c r="C98" t="n">
-        <v>145876624</v>
+        <v>246297264</v>
       </c>
     </row>
     <row r="99">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>716625536</v>
+        <v>842235712</v>
       </c>
       <c r="C99" t="n">
-        <v>244852400</v>
+        <v>159212128</v>
       </c>
     </row>
     <row r="100">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>887839808</v>
+        <v>1088341888</v>
       </c>
       <c r="C100" t="n">
-        <v>356682240</v>
+        <v>218991760</v>
       </c>
     </row>
     <row r="101">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1022427712</v>
+        <v>609164736</v>
       </c>
       <c r="C101" t="n">
-        <v>272121568</v>
+        <v>54864540</v>
       </c>
     </row>
     <row r="102">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>530183296</v>
+        <v>491692960</v>
       </c>
       <c r="C102" t="n">
-        <v>261757872</v>
+        <v>252891600</v>
       </c>
     </row>
     <row r="103">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>838299904</v>
+        <v>677084736</v>
       </c>
       <c r="C103" t="n">
-        <v>203294816</v>
+        <v>425325696</v>
       </c>
     </row>
     <row r="104">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1019700608</v>
+        <v>1050987520</v>
       </c>
       <c r="C104" t="n">
-        <v>192657088</v>
+        <v>46511096</v>
       </c>
     </row>
     <row r="105">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1062317376</v>
+        <v>1034967104</v>
       </c>
       <c r="C105" t="n">
-        <v>220231648</v>
+        <v>47046296</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>585259136</v>
+        <v>602838400</v>
       </c>
       <c r="C106" t="n">
-        <v>267324256</v>
+        <v>178595552</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1476186112</v>
+        <v>1403259776</v>
       </c>
       <c r="C107" t="n">
-        <v>363007968</v>
+        <v>488757632</v>
       </c>
     </row>
     <row r="108">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1415148672</v>
+        <v>1294767744</v>
       </c>
       <c r="C108" t="n">
-        <v>356445824</v>
+        <v>270317792</v>
       </c>
     </row>
     <row r="109">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>857201216</v>
+        <v>929787072</v>
       </c>
       <c r="C109" t="n">
-        <v>295960576</v>
+        <v>583804352</v>
       </c>
     </row>
     <row r="110">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1402068352</v>
+        <v>1635761280</v>
       </c>
       <c r="C110" t="n">
-        <v>753720576</v>
+        <v>791112064</v>
       </c>
     </row>
     <row r="111">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>383477728</v>
+        <v>308437952</v>
       </c>
       <c r="C111" t="n">
-        <v>140463552</v>
+        <v>67878120</v>
       </c>
     </row>
     <row r="112">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1110930048</v>
+        <v>1125694848</v>
       </c>
       <c r="C112" t="n">
-        <v>261633808</v>
+        <v>76055520</v>
       </c>
     </row>
     <row r="113">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1256132608</v>
+        <v>1443825152</v>
       </c>
       <c r="C113" t="n">
-        <v>281648544</v>
+        <v>143216320</v>
       </c>
     </row>
     <row r="114">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>631009472</v>
+        <v>642677888</v>
       </c>
       <c r="C114" t="n">
-        <v>167757536</v>
+        <v>288209952</v>
       </c>
     </row>
     <row r="115">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>596246336</v>
+        <v>500788096</v>
       </c>
       <c r="C115" t="n">
-        <v>229305056</v>
+        <v>122559552</v>
       </c>
     </row>
     <row r="116">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1089649792</v>
+        <v>968537920</v>
       </c>
       <c r="C116" t="n">
-        <v>302621024</v>
+        <v>20465022</v>
       </c>
     </row>
     <row r="117">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1278519808</v>
+        <v>1347675520</v>
       </c>
       <c r="C117" t="n">
-        <v>350807296</v>
+        <v>573235136</v>
       </c>
     </row>
     <row r="118">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>296317952</v>
+        <v>312767392</v>
       </c>
       <c r="C118" t="n">
-        <v>120791112</v>
+        <v>201388768</v>
       </c>
     </row>
     <row r="119">
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>281265632</v>
+        <v>260776144</v>
       </c>
       <c r="C119" t="n">
-        <v>76661744</v>
+        <v>93793960</v>
       </c>
     </row>
     <row r="120">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>998531520</v>
+        <v>1317183360</v>
       </c>
       <c r="C120" t="n">
-        <v>315624864</v>
+        <v>583676608</v>
       </c>
     </row>
     <row r="121">
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>396537408</v>
+        <v>441988992</v>
       </c>
       <c r="C121" t="n">
-        <v>95461544</v>
+        <v>124959896</v>
       </c>
     </row>
     <row r="122">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>774696192</v>
+        <v>762062272</v>
       </c>
       <c r="C122" t="n">
-        <v>184570176</v>
+        <v>168006752</v>
       </c>
     </row>
     <row r="123">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1177471104</v>
+        <v>1181161344</v>
       </c>
       <c r="C123" t="n">
-        <v>229462432</v>
+        <v>367589824</v>
       </c>
     </row>
     <row r="124">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1127708416</v>
+        <v>1221763584</v>
       </c>
       <c r="C124" t="n">
-        <v>369229632</v>
+        <v>226006688</v>
       </c>
     </row>
     <row r="125">
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>962961152</v>
+        <v>976697920</v>
       </c>
       <c r="C125" t="n">
-        <v>168397408</v>
+        <v>211014208</v>
       </c>
     </row>
     <row r="126">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1183684864</v>
+        <v>999603712</v>
       </c>
       <c r="C126" t="n">
-        <v>555830336</v>
+        <v>590181376</v>
       </c>
     </row>
     <row r="127">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>809488192</v>
+        <v>840103104</v>
       </c>
       <c r="C127" t="n">
-        <v>126977064</v>
+        <v>379811936</v>
       </c>
     </row>
     <row r="128">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>585922496</v>
+        <v>531904000</v>
       </c>
       <c r="C128" t="n">
-        <v>107593504</v>
+        <v>120888984</v>
       </c>
     </row>
     <row r="129">
@@ -2108,10 +2108,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>924931264</v>
+        <v>998090816</v>
       </c>
       <c r="C129" t="n">
-        <v>503042496</v>
+        <v>731975104</v>
       </c>
     </row>
     <row r="130">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1146913280</v>
+        <v>1370723584</v>
       </c>
       <c r="C130" t="n">
-        <v>455014272</v>
+        <v>716326592</v>
       </c>
     </row>
     <row r="131">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1227630464</v>
+        <v>1287645568</v>
       </c>
       <c r="C131" t="n">
-        <v>301125760</v>
+        <v>82279512</v>
       </c>
     </row>
     <row r="132">
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>967653248</v>
+        <v>1117792384</v>
       </c>
       <c r="C132" t="n">
-        <v>518148128</v>
+        <v>756536000</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>932299456</v>
+        <v>1033587392</v>
       </c>
       <c r="C133" t="n">
-        <v>328694016</v>
+        <v>277786432</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>965969024</v>
+        <v>961612800</v>
       </c>
       <c r="C134" t="n">
-        <v>278455136</v>
+        <v>328971776</v>
       </c>
     </row>
     <row r="135">
@@ -2186,10 +2186,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1301352576</v>
+        <v>1392163712</v>
       </c>
       <c r="C135" t="n">
-        <v>340309984</v>
+        <v>284607680</v>
       </c>
     </row>
     <row r="136">
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1711555840</v>
+        <v>1548916352</v>
       </c>
       <c r="C136" t="n">
-        <v>826772352</v>
+        <v>779781440</v>
       </c>
     </row>
     <row r="137">
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1128271488</v>
+        <v>1595273600</v>
       </c>
       <c r="C137" t="n">
-        <v>459426624</v>
+        <v>528777632</v>
       </c>
     </row>
     <row r="138">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1135257088</v>
+        <v>1140212096</v>
       </c>
       <c r="C138" t="n">
-        <v>219752704</v>
+        <v>374722720</v>
       </c>
     </row>
     <row r="139">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1027196288</v>
+        <v>1123917824</v>
       </c>
       <c r="C139" t="n">
-        <v>205608160</v>
+        <v>88611320</v>
       </c>
     </row>
     <row r="140">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1494757376</v>
+        <v>1329078912</v>
       </c>
       <c r="C140" t="n">
-        <v>582631616</v>
+        <v>585424448</v>
       </c>
     </row>
     <row r="141">
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>592606976</v>
+        <v>278894176</v>
       </c>
       <c r="C141" t="n">
-        <v>484490208</v>
+        <v>199430816</v>
       </c>
     </row>
     <row r="142">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1401506048</v>
+        <v>1500817408</v>
       </c>
       <c r="C142" t="n">
-        <v>376324640</v>
+        <v>573284416</v>
       </c>
     </row>
     <row r="143">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>561042816</v>
+        <v>708403008</v>
       </c>
       <c r="C143" t="n">
-        <v>134127432</v>
+        <v>161442624</v>
       </c>
     </row>
     <row r="144">
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1237836928</v>
+        <v>1227601536</v>
       </c>
       <c r="C144" t="n">
-        <v>332238592</v>
+        <v>476308672</v>
       </c>
     </row>
     <row r="145">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1063721536</v>
+        <v>1366812032</v>
       </c>
       <c r="C145" t="n">
-        <v>277854944</v>
+        <v>226513232</v>
       </c>
     </row>
     <row r="146">
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>244046736</v>
+        <v>213871936</v>
       </c>
       <c r="C146" t="n">
-        <v>139849248</v>
+        <v>78606032</v>
       </c>
     </row>
     <row r="147">
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>841147584</v>
+        <v>848100800</v>
       </c>
       <c r="C147" t="n">
-        <v>123929672</v>
+        <v>259168384</v>
       </c>
     </row>
     <row r="148">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1221967360</v>
+        <v>1100103808</v>
       </c>
       <c r="C148" t="n">
-        <v>217698656</v>
+        <v>396634080</v>
       </c>
     </row>
     <row r="149">
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1137796992</v>
+        <v>1032391744</v>
       </c>
       <c r="C149" t="n">
-        <v>200654608</v>
+        <v>17001014</v>
       </c>
     </row>
     <row r="150">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>868952384</v>
+        <v>889361152</v>
       </c>
       <c r="C150" t="n">
-        <v>250034368</v>
+        <v>488142816</v>
       </c>
     </row>
     <row r="151">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>789927808</v>
+        <v>705199168</v>
       </c>
       <c r="C151" t="n">
-        <v>155298016</v>
+        <v>227334896</v>
       </c>
     </row>
     <row r="152">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>567149568</v>
+        <v>556376384</v>
       </c>
       <c r="C152" t="n">
-        <v>106300552</v>
+        <v>174963888</v>
       </c>
     </row>
     <row r="153">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>846824512</v>
+        <v>861839296</v>
       </c>
       <c r="C153" t="n">
-        <v>205799312</v>
+        <v>199914912</v>
       </c>
     </row>
     <row r="154">
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1391926144</v>
+        <v>1319205248</v>
       </c>
       <c r="C154" t="n">
-        <v>235614448</v>
+        <v>143117232</v>
       </c>
     </row>
     <row r="155">
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1238207104</v>
+        <v>1270861312</v>
       </c>
       <c r="C155" t="n">
-        <v>287152544</v>
+        <v>419768096</v>
       </c>
     </row>
     <row r="156">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1097076224</v>
+        <v>1029680192</v>
       </c>
       <c r="C156" t="n">
-        <v>188378800</v>
+        <v>69928264</v>
       </c>
     </row>
     <row r="157">
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>524471520</v>
+        <v>560155520</v>
       </c>
       <c r="C157" t="n">
-        <v>85092392</v>
+        <v>123822896</v>
       </c>
     </row>
     <row r="158">
@@ -2485,10 +2485,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>904467904</v>
+        <v>458099456</v>
       </c>
       <c r="C158" t="n">
-        <v>366877024</v>
+        <v>374920416</v>
       </c>
     </row>
     <row r="159">
@@ -2498,10 +2498,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1150661760</v>
+        <v>1081848832</v>
       </c>
       <c r="C159" t="n">
-        <v>241019296</v>
+        <v>172080752</v>
       </c>
     </row>
     <row r="160">
@@ -2511,10 +2511,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1570468736</v>
+        <v>1530786176</v>
       </c>
       <c r="C160" t="n">
-        <v>401570304</v>
+        <v>582564608</v>
       </c>
     </row>
     <row r="161">
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1112036480</v>
+        <v>1146429952</v>
       </c>
       <c r="C161" t="n">
-        <v>314446432</v>
+        <v>114139864</v>
       </c>
     </row>
     <row r="162">
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>892134400</v>
+        <v>1047073472</v>
       </c>
       <c r="C162" t="n">
-        <v>274301120</v>
+        <v>145245856</v>
       </c>
     </row>
     <row r="163">
@@ -2550,10 +2550,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>889262464</v>
+        <v>772453824</v>
       </c>
       <c r="C163" t="n">
-        <v>414705280</v>
+        <v>513876416</v>
       </c>
     </row>
     <row r="164">
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1168765312</v>
+        <v>1107159424</v>
       </c>
       <c r="C164" t="n">
-        <v>311981664</v>
+        <v>155093872</v>
       </c>
     </row>
     <row r="165">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1474117632</v>
+        <v>1677133184</v>
       </c>
       <c r="C165" t="n">
-        <v>605409408</v>
+        <v>821384000</v>
       </c>
     </row>
     <row r="166">
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>816862656</v>
+        <v>752609728</v>
       </c>
       <c r="C166" t="n">
-        <v>229459472</v>
+        <v>400247232</v>
       </c>
     </row>
     <row r="167">
@@ -2602,10 +2602,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1090495616</v>
+        <v>859354816</v>
       </c>
       <c r="C167" t="n">
-        <v>283288704</v>
+        <v>144916976</v>
       </c>
     </row>
     <row r="168">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1242011264</v>
+        <v>1254651648</v>
       </c>
       <c r="C168" t="n">
-        <v>270258464</v>
+        <v>335707424</v>
       </c>
     </row>
     <row r="169">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1169054336</v>
+        <v>1028637248</v>
       </c>
       <c r="C169" t="n">
-        <v>486557120</v>
+        <v>112012808</v>
       </c>
     </row>
     <row r="170">
@@ -2641,10 +2641,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>959646848</v>
+        <v>1237523968</v>
       </c>
       <c r="C170" t="n">
-        <v>361215072</v>
+        <v>282363360</v>
       </c>
     </row>
     <row r="171">
@@ -2654,10 +2654,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>441831360</v>
+        <v>489685888</v>
       </c>
       <c r="C171" t="n">
-        <v>120648192</v>
+        <v>11594267</v>
       </c>
     </row>
     <row r="172">
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>725211584</v>
+        <v>763069760</v>
       </c>
       <c r="C172" t="n">
-        <v>175392544</v>
+        <v>301053024</v>
       </c>
     </row>
     <row r="173">
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1122282624</v>
+        <v>1292459136</v>
       </c>
       <c r="C173" t="n">
-        <v>272585472</v>
+        <v>111552240</v>
       </c>
     </row>
     <row r="174">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>736474944</v>
+        <v>748047360</v>
       </c>
       <c r="C174" t="n">
-        <v>238032144</v>
+        <v>115842720</v>
       </c>
     </row>
     <row r="175">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1589675136</v>
+        <v>2320780288</v>
       </c>
       <c r="C175" t="n">
-        <v>696931584</v>
+        <v>512571424</v>
       </c>
     </row>
     <row r="176">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>785797312</v>
+        <v>886519040</v>
       </c>
       <c r="C176" t="n">
-        <v>137540656</v>
+        <v>367824288</v>
       </c>
     </row>
     <row r="177">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1105788032</v>
+        <v>1155360384</v>
       </c>
       <c r="C177" t="n">
-        <v>265640016</v>
+        <v>215008320</v>
       </c>
     </row>
     <row r="178">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1166396672</v>
+        <v>1508732288</v>
       </c>
       <c r="C178" t="n">
-        <v>614761216</v>
+        <v>445549152</v>
       </c>
     </row>
     <row r="179">
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>981770240</v>
+        <v>855430400</v>
       </c>
       <c r="C179" t="n">
-        <v>192378416</v>
+        <v>194860784</v>
       </c>
     </row>
     <row r="180">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1333271680</v>
+        <v>1306862208</v>
       </c>
       <c r="C180" t="n">
-        <v>374395744</v>
+        <v>348075136</v>
       </c>
     </row>
     <row r="181">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1001033344</v>
+        <v>1364972416</v>
       </c>
       <c r="C181" t="n">
-        <v>325968064</v>
+        <v>516552480</v>
       </c>
     </row>
     <row r="182">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1455636096</v>
+        <v>1616529024</v>
       </c>
       <c r="C182" t="n">
-        <v>282858208</v>
+        <v>574157376</v>
       </c>
     </row>
     <row r="183">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>747028736</v>
+        <v>647943168</v>
       </c>
       <c r="C183" t="n">
-        <v>161184736</v>
+        <v>231045568</v>
       </c>
     </row>
     <row r="184">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>847415680</v>
+        <v>888554496</v>
       </c>
       <c r="C184" t="n">
-        <v>203249536</v>
+        <v>401190016</v>
       </c>
     </row>
     <row r="185">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>490015840</v>
+        <v>429901664</v>
       </c>
       <c r="C185" t="n">
-        <v>340678208</v>
+        <v>297721024</v>
       </c>
     </row>
     <row r="186">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1043885056</v>
+        <v>1163306368</v>
       </c>
       <c r="C186" t="n">
-        <v>303271968</v>
+        <v>251962912</v>
       </c>
     </row>
     <row r="187">
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1379564800</v>
+        <v>1619428864</v>
       </c>
       <c r="C187" t="n">
-        <v>413209984</v>
+        <v>196376304</v>
       </c>
     </row>
     <row r="188">
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>681326400</v>
+        <v>647255744</v>
       </c>
       <c r="C188" t="n">
-        <v>156141920</v>
+        <v>106706840</v>
       </c>
     </row>
     <row r="189">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>417995200</v>
+        <v>391599904</v>
       </c>
       <c r="C189" t="n">
-        <v>93739096</v>
+        <v>83741232</v>
       </c>
     </row>
     <row r="190">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>905364416</v>
+        <v>981335360</v>
       </c>
       <c r="C190" t="n">
-        <v>229897872</v>
+        <v>134503072</v>
       </c>
     </row>
     <row r="191">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>501920800</v>
+        <v>547776832</v>
       </c>
       <c r="C191" t="n">
-        <v>148963456</v>
+        <v>120281336</v>
       </c>
     </row>
     <row r="192">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>938716416</v>
+        <v>880066304</v>
       </c>
       <c r="C192" t="n">
-        <v>261504832</v>
+        <v>213947584</v>
       </c>
     </row>
     <row r="193">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>614973056</v>
+        <v>497752032</v>
       </c>
       <c r="C193" t="n">
-        <v>172102128</v>
+        <v>99297080</v>
       </c>
     </row>
     <row r="194">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1258812032</v>
+        <v>1225608064</v>
       </c>
       <c r="C194" t="n">
-        <v>382959872</v>
+        <v>196998592</v>
       </c>
     </row>
     <row r="195">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1428848512</v>
+        <v>1425775488</v>
       </c>
       <c r="C195" t="n">
-        <v>365464416</v>
+        <v>541693376</v>
       </c>
     </row>
     <row r="196">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>793024832</v>
+        <v>742706112</v>
       </c>
       <c r="C196" t="n">
-        <v>159086224</v>
+        <v>407249152</v>
       </c>
     </row>
     <row r="197">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>539600320</v>
+        <v>505109216</v>
       </c>
       <c r="C197" t="n">
-        <v>325925248</v>
+        <v>114295456</v>
       </c>
     </row>
     <row r="198">
@@ -3005,10 +3005,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>564160960</v>
+        <v>458249312</v>
       </c>
       <c r="C198" t="n">
-        <v>146251200</v>
+        <v>72990144</v>
       </c>
     </row>
     <row r="199">
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>848205632</v>
+        <v>878501056</v>
       </c>
       <c r="C199" t="n">
-        <v>303252768</v>
+        <v>60627816</v>
       </c>
     </row>
     <row r="200">
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1210554368</v>
+        <v>1398703744</v>
       </c>
       <c r="C200" t="n">
-        <v>245425856</v>
+        <v>466797408</v>
       </c>
     </row>
     <row r="201">
@@ -3044,10 +3044,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>453517024</v>
+        <v>365201920</v>
       </c>
       <c r="C201" t="n">
-        <v>306892640</v>
+        <v>185129792</v>
       </c>
     </row>
     <row r="202">
@@ -3057,10 +3057,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>892163008</v>
+        <v>645660096</v>
       </c>
       <c r="C202" t="n">
-        <v>368651744</v>
+        <v>393291200</v>
       </c>
     </row>
     <row r="203">
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1229058176</v>
+        <v>1071078912</v>
       </c>
       <c r="C203" t="n">
-        <v>291023680</v>
+        <v>453079008</v>
       </c>
     </row>
     <row r="204">
@@ -3083,10 +3083,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1422198016</v>
+        <v>928220928</v>
       </c>
       <c r="C204" t="n">
-        <v>735808192</v>
+        <v>465372032</v>
       </c>
     </row>
     <row r="205">
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>742729152</v>
+        <v>767772224</v>
       </c>
       <c r="C205" t="n">
-        <v>163715168</v>
+        <v>308129472</v>
       </c>
     </row>
     <row r="206">
@@ -3109,10 +3109,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>459029920</v>
+        <v>431449440</v>
       </c>
       <c r="C206" t="n">
-        <v>214039840</v>
+        <v>207651776</v>
       </c>
     </row>
     <row r="207">
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>357956608</v>
+        <v>459476896</v>
       </c>
       <c r="C207" t="n">
-        <v>150082224</v>
+        <v>194418496</v>
       </c>
     </row>
     <row r="208">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1258553344</v>
+        <v>1273372928</v>
       </c>
       <c r="C208" t="n">
-        <v>332167200</v>
+        <v>665048832</v>
       </c>
     </row>
     <row r="209">
@@ -3148,10 +3148,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1027270272</v>
+        <v>1073454656</v>
       </c>
       <c r="C209" t="n">
-        <v>211367424</v>
+        <v>239571696</v>
       </c>
     </row>
     <row r="210">
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>672649344</v>
+        <v>651504640</v>
       </c>
       <c r="C210" t="n">
-        <v>232950688</v>
+        <v>98262008</v>
       </c>
     </row>
     <row r="211">
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>640531712</v>
+        <v>762723008</v>
       </c>
       <c r="C211" t="n">
-        <v>209538800</v>
+        <v>175671760</v>
       </c>
     </row>
     <row r="212">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1506328704</v>
+        <v>1517390976</v>
       </c>
       <c r="C212" t="n">
-        <v>359525696</v>
+        <v>369002944</v>
       </c>
     </row>
     <row r="213">
@@ -3200,10 +3200,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>768875648</v>
+        <v>878422272</v>
       </c>
       <c r="C213" t="n">
-        <v>255797984</v>
+        <v>133277800</v>
       </c>
     </row>
     <row r="214">
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1078764032</v>
+        <v>1011652288</v>
       </c>
       <c r="C214" t="n">
-        <v>181338912</v>
+        <v>96173792</v>
       </c>
     </row>
     <row r="215">
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>388552160</v>
+        <v>478281440</v>
       </c>
       <c r="C215" t="n">
-        <v>138868272</v>
+        <v>268824032</v>
       </c>
     </row>
     <row r="216">
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1076068480</v>
+        <v>1292397184</v>
       </c>
       <c r="C216" t="n">
-        <v>143236976</v>
+        <v>361566688</v>
       </c>
     </row>
     <row r="217">
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>612159808</v>
+        <v>668345088</v>
       </c>
       <c r="C217" t="n">
-        <v>205908672</v>
+        <v>101221328</v>
       </c>
     </row>
     <row r="218">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>773530688</v>
+        <v>592441664</v>
       </c>
       <c r="C218" t="n">
-        <v>270117024</v>
+        <v>307929440</v>
       </c>
     </row>
     <row r="219">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>450877344</v>
+        <v>434936448</v>
       </c>
       <c r="C219" t="n">
-        <v>110535560</v>
+        <v>88289488</v>
       </c>
     </row>
     <row r="220">
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>442632832</v>
+        <v>492832000</v>
       </c>
       <c r="C220" t="n">
-        <v>145678832</v>
+        <v>169066736</v>
       </c>
     </row>
     <row r="221">
@@ -3304,10 +3304,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1131450496</v>
+        <v>1188440704</v>
       </c>
       <c r="C221" t="n">
-        <v>255404160</v>
+        <v>231453424</v>
       </c>
     </row>
     <row r="222">
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1036881280</v>
+        <v>1337375104</v>
       </c>
       <c r="C222" t="n">
-        <v>509617792</v>
+        <v>115425816</v>
       </c>
     </row>
     <row r="223">
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>770364864</v>
+        <v>859264448</v>
       </c>
       <c r="C223" t="n">
-        <v>223710176</v>
+        <v>126089544</v>
       </c>
     </row>
     <row r="224">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>889257600</v>
+        <v>1098294784</v>
       </c>
       <c r="C224" t="n">
-        <v>194413248</v>
+        <v>364532960</v>
       </c>
     </row>
     <row r="225">
@@ -3356,10 +3356,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1044454272</v>
+        <v>1322532992</v>
       </c>
       <c r="C225" t="n">
-        <v>187784288</v>
+        <v>393534272</v>
       </c>
     </row>
     <row r="226">
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1460212096</v>
+        <v>1283953536</v>
       </c>
       <c r="C226" t="n">
-        <v>349014400</v>
+        <v>243584704</v>
       </c>
     </row>
     <row r="227">
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>853800256</v>
+        <v>1046782656</v>
       </c>
       <c r="C227" t="n">
-        <v>210051104</v>
+        <v>132145720</v>
       </c>
     </row>
     <row r="228">
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>674467392</v>
+        <v>736533056</v>
       </c>
       <c r="C228" t="n">
-        <v>197667648</v>
+        <v>210225024</v>
       </c>
     </row>
     <row r="229">
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>914966656</v>
+        <v>1153533440</v>
       </c>
       <c r="C229" t="n">
-        <v>592397632</v>
+        <v>760510080</v>
       </c>
     </row>
     <row r="230">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1268467968</v>
+        <v>1360421376</v>
       </c>
       <c r="C230" t="n">
-        <v>374417472</v>
+        <v>281660928</v>
       </c>
     </row>
     <row r="231">
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1179285760</v>
+        <v>1437283712</v>
       </c>
       <c r="C231" t="n">
-        <v>317772128</v>
+        <v>391823104</v>
       </c>
     </row>
     <row r="232">
@@ -3447,10 +3447,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>787982080</v>
+        <v>734249152</v>
       </c>
       <c r="C232" t="n">
-        <v>304285280</v>
+        <v>193592560</v>
       </c>
     </row>
     <row r="233">
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>585167808</v>
+        <v>570180224</v>
       </c>
       <c r="C233" t="n">
-        <v>176140544</v>
+        <v>194352880</v>
       </c>
     </row>
     <row r="234">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>558194176</v>
+        <v>540957632</v>
       </c>
       <c r="C234" t="n">
-        <v>215741328</v>
+        <v>283907296</v>
       </c>
     </row>
     <row r="235">
@@ -3486,10 +3486,10 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>602985728</v>
+        <v>754573504</v>
       </c>
       <c r="C235" t="n">
-        <v>188880032</v>
+        <v>210823168</v>
       </c>
     </row>
     <row r="236">
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1105770624</v>
+        <v>1202655616</v>
       </c>
       <c r="C236" t="n">
-        <v>402581568</v>
+        <v>247108288</v>
       </c>
     </row>
     <row r="237">
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1730260096</v>
+        <v>1864703104</v>
       </c>
       <c r="C237" t="n">
-        <v>575350720</v>
+        <v>845921088</v>
       </c>
     </row>
     <row r="238">
@@ -3525,10 +3525,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>779012672</v>
+        <v>740408640</v>
       </c>
       <c r="C238" t="n">
-        <v>271744128</v>
+        <v>29178782</v>
       </c>
     </row>
     <row r="239">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>795590208</v>
+        <v>906444096</v>
       </c>
       <c r="C239" t="n">
-        <v>147886576</v>
+        <v>120522768</v>
       </c>
     </row>
     <row r="240">
@@ -3551,10 +3551,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1326528896</v>
+        <v>1472306560</v>
       </c>
       <c r="C240" t="n">
-        <v>288191488</v>
+        <v>179334112</v>
       </c>
     </row>
     <row r="241">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>984940800</v>
+        <v>963397632</v>
       </c>
       <c r="C241" t="n">
-        <v>182827664</v>
+        <v>151292480</v>
       </c>
     </row>
     <row r="242">
@@ -3577,10 +3577,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1205685120</v>
+        <v>1581002112</v>
       </c>
       <c r="C242" t="n">
-        <v>261061424</v>
+        <v>565144704</v>
       </c>
     </row>
     <row r="243">
@@ -3590,10 +3590,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1537449216</v>
+        <v>1701910912</v>
       </c>
       <c r="C243" t="n">
-        <v>392369728</v>
+        <v>915766080</v>
       </c>
     </row>
     <row r="244">
@@ -3603,10 +3603,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>281883168</v>
+        <v>328466400</v>
       </c>
       <c r="C244" t="n">
-        <v>129636224</v>
+        <v>223603072</v>
       </c>
     </row>
     <row r="245">
@@ -3616,10 +3616,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>528304800</v>
+        <v>765521152</v>
       </c>
       <c r="C245" t="n">
-        <v>291310752</v>
+        <v>411909600</v>
       </c>
     </row>
     <row r="246">
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1233895680</v>
+        <v>1284058240</v>
       </c>
       <c r="C246" t="n">
-        <v>389417024</v>
+        <v>150122960</v>
       </c>
     </row>
     <row r="247">
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>863674048</v>
+        <v>941162816</v>
       </c>
       <c r="C247" t="n">
-        <v>263724064</v>
+        <v>229118720</v>
       </c>
     </row>
     <row r="248">
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>750216960</v>
+        <v>828273152</v>
       </c>
       <c r="C248" t="n">
-        <v>258480400</v>
+        <v>234088304</v>
       </c>
     </row>
     <row r="249">
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1285705344</v>
+        <v>873065792</v>
       </c>
       <c r="C249" t="n">
-        <v>268667104</v>
+        <v>59550120</v>
       </c>
     </row>
     <row r="250">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>722536704</v>
+        <v>626529536</v>
       </c>
       <c r="C250" t="n">
-        <v>459615360</v>
+        <v>187919152</v>
       </c>
     </row>
     <row r="251">
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>812883200</v>
+        <v>767566592</v>
       </c>
       <c r="C251" t="n">
-        <v>155554848</v>
+        <v>162758880</v>
       </c>
     </row>
     <row r="252">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1052365056</v>
+        <v>1104910592</v>
       </c>
       <c r="C252" t="n">
-        <v>222598896</v>
+        <v>119583584</v>
       </c>
     </row>
     <row r="253">
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1279900288</v>
+        <v>934497792</v>
       </c>
       <c r="C253" t="n">
-        <v>258360560</v>
+        <v>350751712</v>
       </c>
     </row>
     <row r="254">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>840366848</v>
+        <v>825223680</v>
       </c>
       <c r="C254" t="n">
-        <v>129322952</v>
+        <v>286287488</v>
       </c>
     </row>
     <row r="255">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1216753408</v>
+        <v>905320640</v>
       </c>
       <c r="C255" t="n">
-        <v>280725120</v>
+        <v>209312064</v>
       </c>
     </row>
     <row r="256">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>374390720</v>
+        <v>415474688</v>
       </c>
       <c r="C256" t="n">
-        <v>170152864</v>
+        <v>41474000</v>
       </c>
     </row>
     <row r="257">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1016722304</v>
+        <v>992411200</v>
       </c>
       <c r="C257" t="n">
-        <v>190444400</v>
+        <v>111118880</v>
       </c>
     </row>
     <row r="258">
@@ -3785,10 +3785,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1176784896</v>
+        <v>1150396800</v>
       </c>
       <c r="C258" t="n">
-        <v>454539776</v>
+        <v>972558912</v>
       </c>
     </row>
     <row r="259">
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>905791360</v>
+        <v>1396263040</v>
       </c>
       <c r="C259" t="n">
-        <v>332521056</v>
+        <v>567995392</v>
       </c>
     </row>
     <row r="260">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>246171424</v>
+        <v>364139136</v>
       </c>
       <c r="C260" t="n">
-        <v>79131792</v>
+        <v>146532336</v>
       </c>
     </row>
     <row r="261">
@@ -3824,10 +3824,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>376677792</v>
+        <v>411270880</v>
       </c>
       <c r="C261" t="n">
-        <v>226279056</v>
+        <v>232140656</v>
       </c>
     </row>
     <row r="262">
@@ -3837,10 +3837,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>584739136</v>
+        <v>846040128</v>
       </c>
       <c r="C262" t="n">
-        <v>289592608</v>
+        <v>581397120</v>
       </c>
     </row>
     <row r="263">
@@ -3850,10 +3850,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>510552224</v>
+        <v>653288320</v>
       </c>
       <c r="C263" t="n">
-        <v>140663936</v>
+        <v>305496544</v>
       </c>
     </row>
     <row r="264">
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>309786848</v>
+        <v>365344480</v>
       </c>
       <c r="C264" t="n">
-        <v>86946992</v>
+        <v>65338600</v>
       </c>
     </row>
     <row r="265">
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>864919808</v>
+        <v>919814656</v>
       </c>
       <c r="C265" t="n">
-        <v>191034736</v>
+        <v>334646560</v>
       </c>
     </row>
     <row r="266">
@@ -3889,10 +3889,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>467806560</v>
+        <v>576088064</v>
       </c>
       <c r="C266" t="n">
-        <v>121384040</v>
+        <v>102567240</v>
       </c>
     </row>
     <row r="267">
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>429498656</v>
+        <v>536589696</v>
       </c>
       <c r="C267" t="n">
-        <v>227843280</v>
+        <v>265075520</v>
       </c>
     </row>
     <row r="268">
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>589659904</v>
+        <v>897774592</v>
       </c>
       <c r="C268" t="n">
-        <v>214303488</v>
+        <v>130875968</v>
       </c>
     </row>
     <row r="269">
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1626027904</v>
+        <v>1849785984</v>
       </c>
       <c r="C269" t="n">
-        <v>506777632</v>
+        <v>1145829248</v>
       </c>
     </row>
     <row r="270">
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>201846960</v>
+        <v>156801168</v>
       </c>
       <c r="C270" t="n">
-        <v>84607128</v>
+        <v>55289988</v>
       </c>
     </row>
     <row r="271">
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1648391680</v>
+        <v>2015045248</v>
       </c>
       <c r="C271" t="n">
-        <v>566619264</v>
+        <v>440737984</v>
       </c>
     </row>
     <row r="272">
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>852952192</v>
+        <v>907014144</v>
       </c>
       <c r="C272" t="n">
-        <v>221385488</v>
+        <v>150940080</v>
       </c>
     </row>
     <row r="273">
@@ -3980,10 +3980,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1126082176</v>
+        <v>868050368</v>
       </c>
       <c r="C273" t="n">
-        <v>374301088</v>
+        <v>282093728</v>
       </c>
     </row>
     <row r="274">
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>502131808</v>
+        <v>563976064</v>
       </c>
       <c r="C274" t="n">
-        <v>195535520</v>
+        <v>241779424</v>
       </c>
     </row>
     <row r="275">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>736962176</v>
+        <v>771247040</v>
       </c>
       <c r="C275" t="n">
-        <v>183813024</v>
+        <v>154648400</v>
       </c>
     </row>
     <row r="276">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>673926336</v>
+        <v>695064256</v>
       </c>
       <c r="C276" t="n">
-        <v>208802384</v>
+        <v>88986936</v>
       </c>
     </row>
     <row r="277">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>448727776</v>
+        <v>558523008</v>
       </c>
       <c r="C277" t="n">
-        <v>162004416</v>
+        <v>151638848</v>
       </c>
     </row>
     <row r="278">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>895570112</v>
+        <v>1034572992</v>
       </c>
       <c r="C278" t="n">
-        <v>161830768</v>
+        <v>88295736</v>
       </c>
     </row>
     <row r="279">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1213667712</v>
+        <v>1437871488</v>
       </c>
       <c r="C279" t="n">
-        <v>274043680</v>
+        <v>88031480</v>
       </c>
     </row>
     <row r="280">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>767326848</v>
+        <v>725312768</v>
       </c>
       <c r="C280" t="n">
-        <v>235408864</v>
+        <v>211262000</v>
       </c>
     </row>
     <row r="281">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>907489984</v>
+        <v>900559104</v>
       </c>
       <c r="C281" t="n">
-        <v>271989248</v>
+        <v>147528976</v>
       </c>
     </row>
     <row r="282">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>814344320</v>
+        <v>930190400</v>
       </c>
       <c r="C282" t="n">
-        <v>202985344</v>
+        <v>198608256</v>
       </c>
     </row>
     <row r="283">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>879683456</v>
+        <v>817925824</v>
       </c>
       <c r="C283" t="n">
-        <v>467059744</v>
+        <v>560784256</v>
       </c>
     </row>
     <row r="284">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1009064704</v>
+        <v>964783872</v>
       </c>
       <c r="C284" t="n">
-        <v>134114192</v>
+        <v>111379032</v>
       </c>
     </row>
     <row r="285">
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1350980352</v>
+        <v>1426171008</v>
       </c>
       <c r="C285" t="n">
-        <v>399218656</v>
+        <v>597985856</v>
       </c>
     </row>
     <row r="286">
@@ -4149,10 +4149,10 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>895617408</v>
+        <v>870893824</v>
       </c>
       <c r="C286" t="n">
-        <v>294133120</v>
+        <v>300302560</v>
       </c>
     </row>
     <row r="287">
@@ -4162,10 +4162,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>619286592</v>
+        <v>563714752</v>
       </c>
       <c r="C287" t="n">
-        <v>251727984</v>
+        <v>181119456</v>
       </c>
     </row>
     <row r="288">
@@ -4175,10 +4175,10 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>407430496</v>
+        <v>478035424</v>
       </c>
       <c r="C288" t="n">
-        <v>164542496</v>
+        <v>184564208</v>
       </c>
     </row>
     <row r="289">
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1722387840</v>
+        <v>1557014144</v>
       </c>
       <c r="C289" t="n">
-        <v>781382528</v>
+        <v>753764288</v>
       </c>
     </row>
     <row r="290">
@@ -4201,10 +4201,10 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>475472160</v>
+        <v>645091584</v>
       </c>
       <c r="C290" t="n">
-        <v>215425040</v>
+        <v>326689088</v>
       </c>
     </row>
     <row r="291">
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>427153056</v>
+        <v>433166176</v>
       </c>
       <c r="C291" t="n">
-        <v>148389488</v>
+        <v>86846896</v>
       </c>
     </row>
     <row r="292">
@@ -4227,10 +4227,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>224321792</v>
+        <v>400346336</v>
       </c>
       <c r="C292" t="n">
-        <v>124629976</v>
+        <v>222896624</v>
       </c>
     </row>
     <row r="293">
@@ -4240,10 +4240,10 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1050014720</v>
+        <v>1324090240</v>
       </c>
       <c r="C293" t="n">
-        <v>164951328</v>
+        <v>350272544</v>
       </c>
     </row>
     <row r="294">
@@ -4253,10 +4253,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>497602656</v>
+        <v>439632896</v>
       </c>
       <c r="C294" t="n">
-        <v>222886528</v>
+        <v>132957136</v>
       </c>
     </row>
     <row r="295">
@@ -4266,10 +4266,10 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>838036800</v>
+        <v>986468288</v>
       </c>
       <c r="C295" t="n">
-        <v>317279904</v>
+        <v>251628560</v>
       </c>
     </row>
     <row r="296">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>985536896</v>
+        <v>1040698176</v>
       </c>
       <c r="C296" t="n">
-        <v>196684208</v>
+        <v>318832928</v>
       </c>
     </row>
     <row r="297">
@@ -4292,10 +4292,10 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>659641408</v>
+        <v>531858720</v>
       </c>
       <c r="C297" t="n">
-        <v>502645184</v>
+        <v>459233760</v>
       </c>
     </row>
     <row r="298">
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>814828608</v>
+        <v>1027452096</v>
       </c>
       <c r="C298" t="n">
-        <v>215274624</v>
+        <v>298174432</v>
       </c>
     </row>
     <row r="299">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>422543968</v>
+        <v>397102304</v>
       </c>
       <c r="C299" t="n">
-        <v>253652064</v>
+        <v>260426800</v>
       </c>
     </row>
     <row r="300">
@@ -4331,10 +4331,10 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>511534400</v>
+        <v>500672896</v>
       </c>
       <c r="C300" t="n">
-        <v>236584912</v>
+        <v>176638480</v>
       </c>
     </row>
     <row r="301">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>519133376</v>
+        <v>736418112</v>
       </c>
       <c r="C301" t="n">
-        <v>232393776</v>
+        <v>129028504</v>
       </c>
     </row>
     <row r="302">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>274161632</v>
+        <v>314670432</v>
       </c>
       <c r="C302" t="n">
-        <v>101464224</v>
+        <v>119737320</v>
       </c>
     </row>
     <row r="303">
@@ -4370,10 +4370,10 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>178966112</v>
+        <v>554820416</v>
       </c>
       <c r="C303" t="n">
-        <v>90508552</v>
+        <v>723209600</v>
       </c>
     </row>
     <row r="304">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1317017472</v>
+        <v>1506918016</v>
       </c>
       <c r="C304" t="n">
-        <v>620558720</v>
+        <v>217905600</v>
       </c>
     </row>
     <row r="305">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1262887424</v>
+        <v>1142822272</v>
       </c>
       <c r="C305" t="n">
-        <v>393111776</v>
+        <v>230145808</v>
       </c>
     </row>
     <row r="306">
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>332853024</v>
+        <v>301906656</v>
       </c>
       <c r="C306" t="n">
-        <v>73268832</v>
+        <v>128492824</v>
       </c>
     </row>
     <row r="307">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>858421824</v>
+        <v>634286528</v>
       </c>
       <c r="C307" t="n">
-        <v>372375552</v>
+        <v>258562208</v>
       </c>
     </row>
     <row r="308">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1044911552</v>
+        <v>851987264</v>
       </c>
       <c r="C308" t="n">
-        <v>328117152</v>
+        <v>78784584</v>
       </c>
     </row>
     <row r="309">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>516868032</v>
+        <v>338102016</v>
       </c>
       <c r="C309" t="n">
-        <v>152997216</v>
+        <v>55633972</v>
       </c>
     </row>
     <row r="310">
@@ -4461,10 +4461,10 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>889358336</v>
+        <v>939220672</v>
       </c>
       <c r="C310" t="n">
-        <v>484387904</v>
+        <v>277709920</v>
       </c>
     </row>
     <row r="311">
@@ -4474,10 +4474,10 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>625461568</v>
+        <v>651359552</v>
       </c>
       <c r="C311" t="n">
-        <v>175350096</v>
+        <v>128434856</v>
       </c>
     </row>
     <row r="312">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1333271808</v>
+        <v>977041216</v>
       </c>
       <c r="C312" t="n">
-        <v>270206880</v>
+        <v>113478184</v>
       </c>
     </row>
     <row r="313">
@@ -4500,10 +4500,10 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>599674304</v>
+        <v>756700864</v>
       </c>
       <c r="C313" t="n">
-        <v>206645712</v>
+        <v>222667408</v>
       </c>
     </row>
     <row r="314">
@@ -4513,10 +4513,10 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1243069696</v>
+        <v>1223718016</v>
       </c>
       <c r="C314" t="n">
-        <v>226232784</v>
+        <v>195574080</v>
       </c>
     </row>
     <row r="315">
@@ -4526,10 +4526,10 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>306314080</v>
+        <v>277074752</v>
       </c>
       <c r="C315" t="n">
-        <v>132361848</v>
+        <v>126265008</v>
       </c>
     </row>
     <row r="316">
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1194436480</v>
+        <v>1050756928</v>
       </c>
       <c r="C316" t="n">
-        <v>148540784</v>
+        <v>101791088</v>
       </c>
     </row>
     <row r="317">
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>557386112</v>
+        <v>518405120</v>
       </c>
       <c r="C317" t="n">
-        <v>242991248</v>
+        <v>273876448</v>
       </c>
     </row>
     <row r="318">
@@ -4565,10 +4565,10 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>373926016</v>
+        <v>459202464</v>
       </c>
       <c r="C318" t="n">
-        <v>116669928</v>
+        <v>125331264</v>
       </c>
     </row>
     <row r="319">
@@ -4578,10 +4578,10 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1055655296</v>
+        <v>780218304</v>
       </c>
       <c r="C319" t="n">
-        <v>244123088</v>
+        <v>218214960</v>
       </c>
     </row>
     <row r="320">
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>524641440</v>
+        <v>643858688</v>
       </c>
       <c r="C320" t="n">
-        <v>128127632</v>
+        <v>21691714</v>
       </c>
     </row>
     <row r="321">
@@ -4604,10 +4604,10 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>618352512</v>
+        <v>502273376</v>
       </c>
       <c r="C321" t="n">
-        <v>127324776</v>
+        <v>52984576</v>
       </c>
     </row>
     <row r="322">
@@ -4617,10 +4617,10 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>603819584</v>
+        <v>721191168</v>
       </c>
       <c r="C322" t="n">
-        <v>184538240</v>
+        <v>181082064</v>
       </c>
     </row>
     <row r="323">
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>635523648</v>
+        <v>441116000</v>
       </c>
       <c r="C323" t="n">
-        <v>259626192</v>
+        <v>166368416</v>
       </c>
     </row>
     <row r="324">
@@ -4643,10 +4643,10 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>831798464</v>
+        <v>796754368</v>
       </c>
       <c r="C324" t="n">
-        <v>336957632</v>
+        <v>201338640</v>
       </c>
     </row>
     <row r="325">
@@ -4656,10 +4656,10 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>750685760</v>
+        <v>792415552</v>
       </c>
       <c r="C325" t="n">
-        <v>314881248</v>
+        <v>407183008</v>
       </c>
     </row>
     <row r="326">
@@ -4669,10 +4669,10 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>654664064</v>
+        <v>450145184</v>
       </c>
       <c r="C326" t="n">
-        <v>178127696</v>
+        <v>36638380</v>
       </c>
     </row>
     <row r="327">
@@ -4682,10 +4682,10 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>890029824</v>
+        <v>613648128</v>
       </c>
       <c r="C327" t="n">
-        <v>343094144</v>
+        <v>254947872</v>
       </c>
     </row>
     <row r="328">
@@ -4695,10 +4695,10 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>317355552</v>
+        <v>245113168</v>
       </c>
       <c r="C328" t="n">
-        <v>74602680</v>
+        <v>64679288</v>
       </c>
     </row>
     <row r="329">
@@ -4708,10 +4708,10 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>720233920</v>
+        <v>802765312</v>
       </c>
       <c r="C329" t="n">
-        <v>240976896</v>
+        <v>5004462</v>
       </c>
     </row>
     <row r="330">
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>344532256</v>
+        <v>337367552</v>
       </c>
       <c r="C330" t="n">
-        <v>116012560</v>
+        <v>66528856</v>
       </c>
     </row>
     <row r="331">
@@ -4734,10 +4734,10 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>935766144</v>
+        <v>672899392</v>
       </c>
       <c r="C331" t="n">
-        <v>308688192</v>
+        <v>262784624</v>
       </c>
     </row>
     <row r="332">
@@ -4747,10 +4747,10 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>666302336</v>
+        <v>436027680</v>
       </c>
       <c r="C332" t="n">
-        <v>276610752</v>
+        <v>58652792</v>
       </c>
     </row>
     <row r="333">
@@ -4760,10 +4760,10 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>794603072</v>
+        <v>589746688</v>
       </c>
       <c r="C333" t="n">
-        <v>275901536</v>
+        <v>126627936</v>
       </c>
     </row>
     <row r="334">
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>496199136</v>
+        <v>336157920</v>
       </c>
       <c r="C334" t="n">
-        <v>172363968</v>
+        <v>47520576</v>
       </c>
     </row>
     <row r="335">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>667329664</v>
+        <v>509720832</v>
       </c>
       <c r="C335" t="n">
-        <v>178411392</v>
+        <v>118922960</v>
       </c>
     </row>
     <row r="336">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>513027264</v>
+        <v>452701600</v>
       </c>
       <c r="C336" t="n">
-        <v>128689744</v>
+        <v>125266448</v>
       </c>
     </row>
     <row r="337">
@@ -4812,10 +4812,10 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>874177280</v>
+        <v>850360576</v>
       </c>
       <c r="C337" t="n">
-        <v>197047184</v>
+        <v>292080800</v>
       </c>
     </row>
     <row r="338">
@@ -4825,10 +4825,10 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1273668480</v>
+        <v>977193152</v>
       </c>
       <c r="C338" t="n">
-        <v>375123200</v>
+        <v>493969824</v>
       </c>
     </row>
     <row r="339">
@@ -4838,10 +4838,10 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>630720640</v>
+        <v>317738848</v>
       </c>
       <c r="C339" t="n">
-        <v>276369344</v>
+        <v>16544978</v>
       </c>
     </row>
     <row r="340">
@@ -4851,10 +4851,10 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>333225312</v>
+        <v>260694960</v>
       </c>
       <c r="C340" t="n">
-        <v>116303744</v>
+        <v>86349048</v>
       </c>
     </row>
     <row r="341">
@@ -4864,10 +4864,10 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>376159232</v>
+        <v>267622320</v>
       </c>
       <c r="C341" t="n">
-        <v>149543472</v>
+        <v>56369996</v>
       </c>
     </row>
     <row r="342">
@@ -4877,10 +4877,10 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>208694384</v>
+        <v>119733992</v>
       </c>
       <c r="C342" t="n">
-        <v>57222312</v>
+        <v>18907582</v>
       </c>
     </row>
     <row r="343">
@@ -4890,10 +4890,10 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>952711040</v>
+        <v>1075710848</v>
       </c>
       <c r="C343" t="n">
-        <v>150506832</v>
+        <v>502429824</v>
       </c>
     </row>
     <row r="344">
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>822438592</v>
+        <v>639474240</v>
       </c>
       <c r="C344" t="n">
-        <v>231725376</v>
+        <v>176538128</v>
       </c>
     </row>
     <row r="345">
@@ -4916,10 +4916,10 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1004575808</v>
+        <v>898536384</v>
       </c>
       <c r="C345" t="n">
-        <v>107995000</v>
+        <v>98999344</v>
       </c>
     </row>
     <row r="346">
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1000126912</v>
+        <v>1182905472</v>
       </c>
       <c r="C346" t="n">
-        <v>219692032</v>
+        <v>137932592</v>
       </c>
     </row>
     <row r="347">
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1005616384</v>
+        <v>984913472</v>
       </c>
       <c r="C347" t="n">
-        <v>183423952</v>
+        <v>184379200</v>
       </c>
     </row>
     <row r="348">
@@ -4955,10 +4955,10 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>496123936</v>
+        <v>532050176</v>
       </c>
       <c r="C348" t="n">
-        <v>86474392</v>
+        <v>131637680</v>
       </c>
     </row>
     <row r="349">
@@ -4968,10 +4968,10 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1106691328</v>
+        <v>927706048</v>
       </c>
       <c r="C349" t="n">
-        <v>165597792</v>
+        <v>18607450</v>
       </c>
     </row>
     <row r="350">
@@ -4981,10 +4981,10 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1648242432</v>
+        <v>1344343808</v>
       </c>
       <c r="C350" t="n">
-        <v>607939712</v>
+        <v>517995136</v>
       </c>
     </row>
     <row r="351">
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1579494016</v>
+        <v>2439770112</v>
       </c>
       <c r="C351" t="n">
-        <v>490217856</v>
+        <v>373921952</v>
       </c>
     </row>
     <row r="352">
@@ -5007,10 +5007,10 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1300598144</v>
+        <v>1517102976</v>
       </c>
       <c r="C352" t="n">
-        <v>296198656</v>
+        <v>582974208</v>
       </c>
     </row>
     <row r="353">
@@ -5020,10 +5020,10 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>418975712</v>
+        <v>420711520</v>
       </c>
       <c r="C353" t="n">
-        <v>217399472</v>
+        <v>225273456</v>
       </c>
     </row>
     <row r="354">
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1087904512</v>
+        <v>966926912</v>
       </c>
       <c r="C354" t="n">
-        <v>250789968</v>
+        <v>334137568</v>
       </c>
     </row>
     <row r="355">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>561146880</v>
+        <v>530769952</v>
       </c>
       <c r="C355" t="n">
-        <v>207005776</v>
+        <v>174902848</v>
       </c>
     </row>
     <row r="356">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1127145984</v>
+        <v>943698112</v>
       </c>
       <c r="C356" t="n">
-        <v>237855744</v>
+        <v>439136480</v>
       </c>
     </row>
     <row r="357">
@@ -5072,10 +5072,10 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1128063232</v>
+        <v>908746048</v>
       </c>
       <c r="C357" t="n">
-        <v>231809168</v>
+        <v>251959616</v>
       </c>
     </row>
     <row r="358">
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1009279424</v>
+        <v>1123868544</v>
       </c>
       <c r="C358" t="n">
-        <v>169402736</v>
+        <v>49606380</v>
       </c>
     </row>
     <row r="359">
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>995673408</v>
+        <v>840865856</v>
       </c>
       <c r="C359" t="n">
-        <v>249061344</v>
+        <v>465585696</v>
       </c>
     </row>
     <row r="360">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>890056320</v>
+        <v>780560192</v>
       </c>
       <c r="C360" t="n">
-        <v>285697952</v>
+        <v>441038848</v>
       </c>
     </row>
     <row r="361">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1372610816</v>
+        <v>1069744320</v>
       </c>
       <c r="C361" t="n">
-        <v>528094272</v>
+        <v>439266496</v>
       </c>
     </row>
     <row r="362">
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1389232384</v>
+        <v>1055906880</v>
       </c>
       <c r="C362" t="n">
-        <v>512452928</v>
+        <v>311554848</v>
       </c>
     </row>
     <row r="363">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1365175424</v>
+        <v>942553600</v>
       </c>
       <c r="C363" t="n">
-        <v>761757824</v>
+        <v>363373248</v>
       </c>
     </row>
     <row r="364">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1393667456</v>
+        <v>1269120512</v>
       </c>
       <c r="C364" t="n">
-        <v>294115360</v>
+        <v>96584368</v>
       </c>
     </row>
     <row r="365">
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>520636288</v>
+        <v>492615328</v>
       </c>
       <c r="C365" t="n">
-        <v>276887616</v>
+        <v>272163968</v>
       </c>
     </row>
     <row r="366">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>565003392</v>
+        <v>667166656</v>
       </c>
       <c r="C366" t="n">
-        <v>253616224</v>
+        <v>146056000</v>
       </c>
     </row>
     <row r="367">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>776586496</v>
+        <v>1044663104</v>
       </c>
       <c r="C367" t="n">
-        <v>412398912</v>
+        <v>996422784</v>
       </c>
     </row>
     <row r="368">
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1269165440</v>
+        <v>1192507520</v>
       </c>
       <c r="C368" t="n">
-        <v>302248480</v>
+        <v>168153360</v>
       </c>
     </row>
     <row r="369">
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1091386624</v>
+        <v>1314302592</v>
       </c>
       <c r="C369" t="n">
-        <v>180197552</v>
+        <v>203607328</v>
       </c>
     </row>
     <row r="370">
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>741783360</v>
+        <v>921112640</v>
       </c>
       <c r="C370" t="n">
-        <v>197375072</v>
+        <v>334039520</v>
       </c>
     </row>
     <row r="371">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1342353792</v>
+        <v>1594091648</v>
       </c>
       <c r="C371" t="n">
-        <v>330346560</v>
+        <v>436834272</v>
       </c>
     </row>
     <row r="372">
@@ -5267,10 +5267,10 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1049191680</v>
+        <v>825641792</v>
       </c>
       <c r="C372" t="n">
-        <v>505851520</v>
+        <v>146409808</v>
       </c>
     </row>
     <row r="373">
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1128443648</v>
+        <v>1348754304</v>
       </c>
       <c r="C373" t="n">
-        <v>260479920</v>
+        <v>90700472</v>
       </c>
     </row>
     <row r="374">
@@ -5293,10 +5293,10 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>677951552</v>
+        <v>841629376</v>
       </c>
       <c r="C374" t="n">
-        <v>320302592</v>
+        <v>461682048</v>
       </c>
     </row>
     <row r="375">
@@ -5306,10 +5306,10 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1124614272</v>
+        <v>1322656128</v>
       </c>
       <c r="C375" t="n">
-        <v>181455088</v>
+        <v>148416304</v>
       </c>
     </row>
     <row r="376">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>446993728</v>
+        <v>503040096</v>
       </c>
       <c r="C376" t="n">
-        <v>294660960</v>
+        <v>127648976</v>
       </c>
     </row>
     <row r="377">
@@ -5332,10 +5332,10 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1089571968</v>
+        <v>1460730240</v>
       </c>
       <c r="C377" t="n">
-        <v>727312128</v>
+        <v>666668416</v>
       </c>
     </row>
     <row r="378">
@@ -5345,10 +5345,10 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1185564288</v>
+        <v>1280333824</v>
       </c>
       <c r="C378" t="n">
-        <v>399982624</v>
+        <v>780387776</v>
       </c>
     </row>
     <row r="379">
@@ -5358,10 +5358,10 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1432657792</v>
+        <v>1650477696</v>
       </c>
       <c r="C379" t="n">
-        <v>881835328</v>
+        <v>709938176</v>
       </c>
     </row>
     <row r="380">
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1289398144</v>
+        <v>1113885312</v>
       </c>
       <c r="C380" t="n">
-        <v>411776224</v>
+        <v>523169600</v>
       </c>
     </row>
   </sheetData>

--- a/results/GP_asteroid_predictions_at_1AU_as_irradiation12.xlsx
+++ b/results/GP_asteroid_predictions_at_1AU_as_irradiation12.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1142373248</v>
+        <v>1328679296</v>
       </c>
       <c r="C2" t="n">
-        <v>62896892</v>
+        <v>209986592</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>887250496</v>
+        <v>1186947456</v>
       </c>
       <c r="C3" t="n">
-        <v>218824480</v>
+        <v>268097056</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>977818816</v>
+        <v>1214452352</v>
       </c>
       <c r="C4" t="n">
-        <v>94119576</v>
+        <v>214365216</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995757056</v>
+        <v>972905152</v>
       </c>
       <c r="C5" t="n">
-        <v>341669664</v>
+        <v>175051552</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1190386432</v>
+        <v>1339276928</v>
       </c>
       <c r="C6" t="n">
-        <v>451789312</v>
+        <v>244449248</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1435237248</v>
+        <v>1394562304</v>
       </c>
       <c r="C7" t="n">
-        <v>460917408</v>
+        <v>316502816</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1224201088</v>
+        <v>1226271872</v>
       </c>
       <c r="C8" t="n">
-        <v>381097344</v>
+        <v>194721632</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>754895424</v>
+        <v>628995968</v>
       </c>
       <c r="C9" t="n">
-        <v>324282368</v>
+        <v>94665672</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1092703104</v>
+        <v>1054532288</v>
       </c>
       <c r="C10" t="n">
-        <v>234219872</v>
+        <v>185664320</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1124829568</v>
+        <v>1172113664</v>
       </c>
       <c r="C11" t="n">
-        <v>112470920</v>
+        <v>189766368</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>564350400</v>
+        <v>691574784</v>
       </c>
       <c r="C12" t="n">
-        <v>137928928</v>
+        <v>159084096</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1005278464</v>
+        <v>905598016</v>
       </c>
       <c r="C13" t="n">
-        <v>165320800</v>
+        <v>150324320</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>872622784</v>
+        <v>782808768</v>
       </c>
       <c r="C14" t="n">
-        <v>159481712</v>
+        <v>198248624</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1343621248</v>
+        <v>1303296256</v>
       </c>
       <c r="C15" t="n">
-        <v>182955472</v>
+        <v>246168672</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677530944</v>
+        <v>586399936</v>
       </c>
       <c r="C16" t="n">
-        <v>76898904</v>
+        <v>94132040</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>723101952</v>
+        <v>697226880</v>
       </c>
       <c r="C17" t="n">
-        <v>364755936</v>
+        <v>120748416</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>923573952</v>
+        <v>951721408</v>
       </c>
       <c r="C18" t="n">
-        <v>139336400</v>
+        <v>156366688</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>533198592</v>
+        <v>501548960</v>
       </c>
       <c r="C19" t="n">
-        <v>221992144</v>
+        <v>123826272</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1045718336</v>
+        <v>1022105600</v>
       </c>
       <c r="C20" t="n">
-        <v>175621600</v>
+        <v>101228176</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>898872128</v>
+        <v>807327936</v>
       </c>
       <c r="C21" t="n">
-        <v>119858640</v>
+        <v>159300688</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1002427968</v>
+        <v>1156075648</v>
       </c>
       <c r="C22" t="n">
-        <v>109142528</v>
+        <v>194266464</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855613120</v>
+        <v>984893760</v>
       </c>
       <c r="C23" t="n">
-        <v>96618944</v>
+        <v>233814592</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1624163840</v>
+        <v>1680281216</v>
       </c>
       <c r="C24" t="n">
-        <v>428997088</v>
+        <v>450866880</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>912594368</v>
+        <v>1075137664</v>
       </c>
       <c r="C25" t="n">
-        <v>219756944</v>
+        <v>192622720</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>845729792</v>
+        <v>871508416</v>
       </c>
       <c r="C26" t="n">
-        <v>146044176</v>
+        <v>165931328</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>849790784</v>
+        <v>735346880</v>
       </c>
       <c r="C27" t="n">
-        <v>287115168</v>
+        <v>99210880</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141312512</v>
+        <v>1098416640</v>
       </c>
       <c r="C28" t="n">
-        <v>267408320</v>
+        <v>195414544</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1319274880</v>
+        <v>1448610432</v>
       </c>
       <c r="C29" t="n">
-        <v>151344512</v>
+        <v>311194912</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1223454720</v>
+        <v>1142823296</v>
       </c>
       <c r="C30" t="n">
-        <v>441275232</v>
+        <v>132845584</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1007709184</v>
+        <v>817076288</v>
       </c>
       <c r="C31" t="n">
-        <v>179475840</v>
+        <v>181870896</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1159221248</v>
+        <v>1195741312</v>
       </c>
       <c r="C32" t="n">
-        <v>315984448</v>
+        <v>202742832</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1755150464</v>
+        <v>1870146048</v>
       </c>
       <c r="C33" t="n">
-        <v>687793216</v>
+        <v>540431552</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917027776</v>
+        <v>855495616</v>
       </c>
       <c r="C34" t="n">
-        <v>241657056</v>
+        <v>186176704</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1126645632</v>
+        <v>1161075456</v>
       </c>
       <c r="C35" t="n">
-        <v>274083584</v>
+        <v>165282640</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1078426112</v>
+        <v>1245982592</v>
       </c>
       <c r="C36" t="n">
-        <v>123545552</v>
+        <v>230845744</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>900973248</v>
+        <v>721909376</v>
       </c>
       <c r="C37" t="n">
-        <v>243931808</v>
+        <v>259271056</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1282652416</v>
+        <v>1509939328</v>
       </c>
       <c r="C38" t="n">
-        <v>327312640</v>
+        <v>420235488</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>946970560</v>
+        <v>1102344448</v>
       </c>
       <c r="C39" t="n">
-        <v>315071488</v>
+        <v>196189472</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1124732672</v>
+        <v>1095040512</v>
       </c>
       <c r="C40" t="n">
-        <v>158855472</v>
+        <v>183945504</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>685429952</v>
+        <v>564328704</v>
       </c>
       <c r="C41" t="n">
-        <v>238967696</v>
+        <v>205642400</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1007839488</v>
+        <v>911191296</v>
       </c>
       <c r="C42" t="n">
-        <v>135355424</v>
+        <v>185818800</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>739427392</v>
+        <v>789695232</v>
       </c>
       <c r="C43" t="n">
-        <v>273459040</v>
+        <v>106230968</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>886872000</v>
+        <v>1124616832</v>
       </c>
       <c r="C44" t="n">
-        <v>182281632</v>
+        <v>245892752</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1003178688</v>
+        <v>987361152</v>
       </c>
       <c r="C45" t="n">
-        <v>33551550</v>
+        <v>149054592</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>897180224</v>
+        <v>1123110528</v>
       </c>
       <c r="C46" t="n">
-        <v>20280934</v>
+        <v>234536000</v>
       </c>
     </row>
     <row r="47">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>982777536</v>
+        <v>1165538176</v>
       </c>
       <c r="C47" t="n">
-        <v>57144020</v>
+        <v>195477648</v>
       </c>
     </row>
     <row r="48">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>957770752</v>
+        <v>845694016</v>
       </c>
       <c r="C48" t="n">
-        <v>184516832</v>
+        <v>98251368</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1302953856</v>
+        <v>1225866496</v>
       </c>
       <c r="C49" t="n">
-        <v>348700384</v>
+        <v>243126816</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>862522112</v>
+        <v>914589440</v>
       </c>
       <c r="C50" t="n">
-        <v>201580912</v>
+        <v>217916576</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1657060864</v>
+        <v>1602212224</v>
       </c>
       <c r="C51" t="n">
-        <v>98475720</v>
+        <v>555876800</v>
       </c>
     </row>
     <row r="52">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>945428992</v>
+        <v>943507328</v>
       </c>
       <c r="C52" t="n">
-        <v>195363040</v>
+        <v>142615232</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>661161280</v>
+        <v>605970624</v>
       </c>
       <c r="C53" t="n">
-        <v>198092976</v>
+        <v>85673464</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>967553792</v>
+        <v>1176694656</v>
       </c>
       <c r="C54" t="n">
-        <v>161610000</v>
+        <v>225050848</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>745233216</v>
+        <v>694363392</v>
       </c>
       <c r="C55" t="n">
-        <v>178960960</v>
+        <v>168520736</v>
       </c>
     </row>
     <row r="56">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>832623936</v>
+        <v>825370368</v>
       </c>
       <c r="C56" t="n">
-        <v>63409444</v>
+        <v>99018904</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1267248256</v>
+        <v>1390435840</v>
       </c>
       <c r="C57" t="n">
-        <v>240693120</v>
+        <v>420105728</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>845690048</v>
+        <v>784954176</v>
       </c>
       <c r="C58" t="n">
-        <v>132830944</v>
+        <v>118663688</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1071745088</v>
+        <v>1056219392</v>
       </c>
       <c r="C59" t="n">
-        <v>409430848</v>
+        <v>158663760</v>
       </c>
     </row>
     <row r="60">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1102581120</v>
+        <v>1134807808</v>
       </c>
       <c r="C60" t="n">
-        <v>213534368</v>
+        <v>181513568</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>419426208</v>
+        <v>473920288</v>
       </c>
       <c r="C61" t="n">
-        <v>218839936</v>
+        <v>192806192</v>
       </c>
     </row>
     <row r="62">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1152825344</v>
+        <v>1183092096</v>
       </c>
       <c r="C62" t="n">
-        <v>48577056</v>
+        <v>328690016</v>
       </c>
     </row>
     <row r="63">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>758910912</v>
+        <v>659324672</v>
       </c>
       <c r="C63" t="n">
-        <v>144173296</v>
+        <v>160476976</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>927300864</v>
+        <v>1142557568</v>
       </c>
       <c r="C64" t="n">
-        <v>34714636</v>
+        <v>315446848</v>
       </c>
     </row>
     <row r="65">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>928641280</v>
+        <v>1243924864</v>
       </c>
       <c r="C65" t="n">
-        <v>208167904</v>
+        <v>489580608</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1257974400</v>
+        <v>1305226624</v>
       </c>
       <c r="C66" t="n">
-        <v>393577024</v>
+        <v>417315616</v>
       </c>
     </row>
     <row r="67">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1206306560</v>
+        <v>1116415104</v>
       </c>
       <c r="C67" t="n">
-        <v>196959920</v>
+        <v>184038112</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>710847552</v>
+        <v>651849536</v>
       </c>
       <c r="C68" t="n">
-        <v>292330912</v>
+        <v>180490752</v>
       </c>
     </row>
     <row r="69">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>988531712</v>
+        <v>1213107968</v>
       </c>
       <c r="C69" t="n">
-        <v>84869808</v>
+        <v>288452800</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1419451264</v>
+        <v>1462267136</v>
       </c>
       <c r="C70" t="n">
-        <v>76735336</v>
+        <v>505596448</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>990034688</v>
+        <v>1180118656</v>
       </c>
       <c r="C71" t="n">
-        <v>140332720</v>
+        <v>357697984</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1265595264</v>
+        <v>1315164928</v>
       </c>
       <c r="C72" t="n">
-        <v>270000384</v>
+        <v>313400288</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>967638208</v>
+        <v>1158864896</v>
       </c>
       <c r="C73" t="n">
-        <v>88851824</v>
+        <v>270659936</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1833176960</v>
+        <v>1943210624</v>
       </c>
       <c r="C74" t="n">
-        <v>795536960</v>
+        <v>538639552</v>
       </c>
     </row>
     <row r="75">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1171710592</v>
+        <v>1286817408</v>
       </c>
       <c r="C75" t="n">
-        <v>212967280</v>
+        <v>315906336</v>
       </c>
     </row>
     <row r="76">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1156071552</v>
+        <v>1074901888</v>
       </c>
       <c r="C76" t="n">
-        <v>142377200</v>
+        <v>156364432</v>
       </c>
     </row>
     <row r="77">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>640251712</v>
+        <v>524988288</v>
       </c>
       <c r="C77" t="n">
-        <v>304832992</v>
+        <v>222618224</v>
       </c>
     </row>
     <row r="78">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1118907904</v>
+        <v>1209628416</v>
       </c>
       <c r="C78" t="n">
-        <v>176199936</v>
+        <v>217909392</v>
       </c>
     </row>
     <row r="79">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1462831104</v>
+        <v>1382796800</v>
       </c>
       <c r="C79" t="n">
-        <v>386522016</v>
+        <v>443177888</v>
       </c>
     </row>
     <row r="80">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>782532800</v>
+        <v>775834944</v>
       </c>
       <c r="C80" t="n">
-        <v>126216600</v>
+        <v>251092816</v>
       </c>
     </row>
     <row r="81">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>827274240</v>
+        <v>1011546560</v>
       </c>
       <c r="C81" t="n">
-        <v>298655872</v>
+        <v>210833936</v>
       </c>
     </row>
     <row r="82">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1398807168</v>
+        <v>1542637568</v>
       </c>
       <c r="C82" t="n">
-        <v>467023488</v>
+        <v>448439072</v>
       </c>
     </row>
     <row r="83">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>416133792</v>
+        <v>361253280</v>
       </c>
       <c r="C83" t="n">
-        <v>223827136</v>
+        <v>140168640</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>501226912</v>
+        <v>486674336</v>
       </c>
       <c r="C84" t="n">
-        <v>121825984</v>
+        <v>112447944</v>
       </c>
     </row>
     <row r="85">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>924065792</v>
+        <v>1165027712</v>
       </c>
       <c r="C85" t="n">
-        <v>169528144</v>
+        <v>181437824</v>
       </c>
     </row>
     <row r="86">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1147707904</v>
+        <v>1249418624</v>
       </c>
       <c r="C86" t="n">
-        <v>211021920</v>
+        <v>272121696</v>
       </c>
     </row>
     <row r="87">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1024851264</v>
+        <v>1194727680</v>
       </c>
       <c r="C87" t="n">
-        <v>487072544</v>
+        <v>396603136</v>
       </c>
     </row>
     <row r="88">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>648201152</v>
+        <v>570834880</v>
       </c>
       <c r="C88" t="n">
-        <v>242882000</v>
+        <v>243462480</v>
       </c>
     </row>
     <row r="89">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1370426240</v>
+        <v>1276439424</v>
       </c>
       <c r="C89" t="n">
-        <v>147583920</v>
+        <v>294630432</v>
       </c>
     </row>
     <row r="90">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1338073984</v>
+        <v>1247670656</v>
       </c>
       <c r="C90" t="n">
-        <v>604606656</v>
+        <v>245867232</v>
       </c>
     </row>
     <row r="91">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1121909760</v>
+        <v>1097455488</v>
       </c>
       <c r="C91" t="n">
-        <v>320343840</v>
+        <v>141678416</v>
       </c>
     </row>
     <row r="92">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1459871744</v>
+        <v>1168191744</v>
       </c>
       <c r="C92" t="n">
-        <v>380365856</v>
+        <v>233838112</v>
       </c>
     </row>
     <row r="93">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1290123904</v>
+        <v>1318679296</v>
       </c>
       <c r="C93" t="n">
-        <v>173186688</v>
+        <v>433959872</v>
       </c>
     </row>
     <row r="94">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>861251008</v>
+        <v>1087432192</v>
       </c>
       <c r="C94" t="n">
-        <v>203357392</v>
+        <v>320186080</v>
       </c>
     </row>
     <row r="95">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1525303936</v>
+        <v>1066149888</v>
       </c>
       <c r="C95" t="n">
-        <v>285862880</v>
+        <v>365065856</v>
       </c>
     </row>
     <row r="96">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>874815296</v>
+        <v>857664064</v>
       </c>
       <c r="C96" t="n">
-        <v>247492720</v>
+        <v>228243056</v>
       </c>
     </row>
     <row r="97">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1350416512</v>
+        <v>1556899328</v>
       </c>
       <c r="C97" t="n">
-        <v>450352160</v>
+        <v>441378432</v>
       </c>
     </row>
     <row r="98">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>442401184</v>
+        <v>406143968</v>
       </c>
       <c r="C98" t="n">
-        <v>246297264</v>
+        <v>185977056</v>
       </c>
     </row>
     <row r="99">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>842235712</v>
+        <v>715516800</v>
       </c>
       <c r="C99" t="n">
-        <v>159212128</v>
+        <v>161322240</v>
       </c>
     </row>
     <row r="100">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1088341888</v>
+        <v>857676864</v>
       </c>
       <c r="C100" t="n">
-        <v>218991760</v>
+        <v>233073408</v>
       </c>
     </row>
     <row r="101">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>609164736</v>
+        <v>959050944</v>
       </c>
       <c r="C101" t="n">
-        <v>54864540</v>
+        <v>266321312</v>
       </c>
     </row>
     <row r="102">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>491692960</v>
+        <v>608412736</v>
       </c>
       <c r="C102" t="n">
-        <v>252891600</v>
+        <v>286543488</v>
       </c>
     </row>
     <row r="103">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>677084736</v>
+        <v>841849792</v>
       </c>
       <c r="C103" t="n">
-        <v>425325696</v>
+        <v>198174704</v>
       </c>
     </row>
     <row r="104">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1050987520</v>
+        <v>1044710784</v>
       </c>
       <c r="C104" t="n">
-        <v>46511096</v>
+        <v>214951424</v>
       </c>
     </row>
     <row r="105">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1034967104</v>
+        <v>1130015104</v>
       </c>
       <c r="C105" t="n">
-        <v>47046296</v>
+        <v>271207136</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>602838400</v>
+        <v>566165440</v>
       </c>
       <c r="C106" t="n">
-        <v>178595552</v>
+        <v>235483376</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1403259776</v>
+        <v>1599026432</v>
       </c>
       <c r="C107" t="n">
-        <v>488757632</v>
+        <v>404392288</v>
       </c>
     </row>
     <row r="108">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1294767744</v>
+        <v>1447726976</v>
       </c>
       <c r="C108" t="n">
-        <v>270317792</v>
+        <v>484562112</v>
       </c>
     </row>
     <row r="109">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>929787072</v>
+        <v>943884992</v>
       </c>
       <c r="C109" t="n">
-        <v>583804352</v>
+        <v>331316256</v>
       </c>
     </row>
     <row r="110">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1635761280</v>
+        <v>1696073472</v>
       </c>
       <c r="C110" t="n">
-        <v>791112064</v>
+        <v>737055680</v>
       </c>
     </row>
     <row r="111">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>308437952</v>
+        <v>388786848</v>
       </c>
       <c r="C111" t="n">
-        <v>67878120</v>
+        <v>137076528</v>
       </c>
     </row>
     <row r="112">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1125694848</v>
+        <v>1128561280</v>
       </c>
       <c r="C112" t="n">
-        <v>76055520</v>
+        <v>193779536</v>
       </c>
     </row>
     <row r="113">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1443825152</v>
+        <v>1297693184</v>
       </c>
       <c r="C113" t="n">
-        <v>143216320</v>
+        <v>416280384</v>
       </c>
     </row>
     <row r="114">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>642677888</v>
+        <v>640815232</v>
       </c>
       <c r="C114" t="n">
-        <v>288209952</v>
+        <v>173857536</v>
       </c>
     </row>
     <row r="115">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>500788096</v>
+        <v>629716992</v>
       </c>
       <c r="C115" t="n">
-        <v>122559552</v>
+        <v>183916368</v>
       </c>
     </row>
     <row r="116">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>968537920</v>
+        <v>1091148032</v>
       </c>
       <c r="C116" t="n">
-        <v>20465022</v>
+        <v>247150640</v>
       </c>
     </row>
     <row r="117">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1347675520</v>
+        <v>1419442048</v>
       </c>
       <c r="C117" t="n">
-        <v>573235136</v>
+        <v>487928256</v>
       </c>
     </row>
     <row r="118">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>312767392</v>
+        <v>332601120</v>
       </c>
       <c r="C118" t="n">
-        <v>201388768</v>
+        <v>142317952</v>
       </c>
     </row>
     <row r="119">
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>260776144</v>
+        <v>285768288</v>
       </c>
       <c r="C119" t="n">
-        <v>93793960</v>
+        <v>58295160</v>
       </c>
     </row>
     <row r="120">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1317183360</v>
+        <v>1042241344</v>
       </c>
       <c r="C120" t="n">
-        <v>583676608</v>
+        <v>255992896</v>
       </c>
     </row>
     <row r="121">
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>441988992</v>
+        <v>433192128</v>
       </c>
       <c r="C121" t="n">
-        <v>124959896</v>
+        <v>119105736</v>
       </c>
     </row>
     <row r="122">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>762062272</v>
+        <v>728138112</v>
       </c>
       <c r="C122" t="n">
-        <v>168006752</v>
+        <v>168241856</v>
       </c>
     </row>
     <row r="123">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1181161344</v>
+        <v>1200021888</v>
       </c>
       <c r="C123" t="n">
-        <v>367589824</v>
+        <v>226451440</v>
       </c>
     </row>
     <row r="124">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1221763584</v>
+        <v>1187595008</v>
       </c>
       <c r="C124" t="n">
-        <v>226006688</v>
+        <v>321761376</v>
       </c>
     </row>
     <row r="125">
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>976697920</v>
+        <v>954675328</v>
       </c>
       <c r="C125" t="n">
-        <v>211014208</v>
+        <v>171877200</v>
       </c>
     </row>
     <row r="126">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>999603712</v>
+        <v>1296647680</v>
       </c>
       <c r="C126" t="n">
-        <v>590181376</v>
+        <v>561543872</v>
       </c>
     </row>
     <row r="127">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>840103104</v>
+        <v>776850624</v>
       </c>
       <c r="C127" t="n">
-        <v>379811936</v>
+        <v>111305504</v>
       </c>
     </row>
     <row r="128">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>531904000</v>
+        <v>604326720</v>
       </c>
       <c r="C128" t="n">
-        <v>120888984</v>
+        <v>103722488</v>
       </c>
     </row>
     <row r="129">
@@ -2108,10 +2108,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>998090816</v>
+        <v>1042619392</v>
       </c>
       <c r="C129" t="n">
-        <v>731975104</v>
+        <v>513368448</v>
       </c>
     </row>
     <row r="130">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1370723584</v>
+        <v>1328916480</v>
       </c>
       <c r="C130" t="n">
-        <v>716326592</v>
+        <v>408794848</v>
       </c>
     </row>
     <row r="131">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1287645568</v>
+        <v>1330705792</v>
       </c>
       <c r="C131" t="n">
-        <v>82279512</v>
+        <v>375395008</v>
       </c>
     </row>
     <row r="132">
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1117792384</v>
+        <v>1100318848</v>
       </c>
       <c r="C132" t="n">
-        <v>756536000</v>
+        <v>522791264</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1033587392</v>
+        <v>1041752704</v>
       </c>
       <c r="C133" t="n">
-        <v>277786432</v>
+        <v>382729760</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>961612800</v>
+        <v>974105216</v>
       </c>
       <c r="C134" t="n">
-        <v>328971776</v>
+        <v>242356544</v>
       </c>
     </row>
     <row r="135">
@@ -2186,10 +2186,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1392163712</v>
+        <v>1457621888</v>
       </c>
       <c r="C135" t="n">
-        <v>284607680</v>
+        <v>416079584</v>
       </c>
     </row>
     <row r="136">
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1548916352</v>
+        <v>2045476352</v>
       </c>
       <c r="C136" t="n">
-        <v>779781440</v>
+        <v>830645056</v>
       </c>
     </row>
     <row r="137">
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1595273600</v>
+        <v>1201393536</v>
       </c>
       <c r="C137" t="n">
-        <v>528777632</v>
+        <v>272430688</v>
       </c>
     </row>
     <row r="138">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1140212096</v>
+        <v>1154282368</v>
       </c>
       <c r="C138" t="n">
-        <v>374722720</v>
+        <v>216997008</v>
       </c>
     </row>
     <row r="139">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1123917824</v>
+        <v>1054207168</v>
       </c>
       <c r="C139" t="n">
-        <v>88611320</v>
+        <v>167416176</v>
       </c>
     </row>
     <row r="140">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1329078912</v>
+        <v>1391138048</v>
       </c>
       <c r="C140" t="n">
-        <v>585424448</v>
+        <v>455789888</v>
       </c>
     </row>
     <row r="141">
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>278894176</v>
+        <v>520576704</v>
       </c>
       <c r="C141" t="n">
-        <v>199430816</v>
+        <v>341980416</v>
       </c>
     </row>
     <row r="142">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1500817408</v>
+        <v>1504646400</v>
       </c>
       <c r="C142" t="n">
-        <v>573284416</v>
+        <v>368915872</v>
       </c>
     </row>
     <row r="143">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>708403008</v>
+        <v>548914496</v>
       </c>
       <c r="C143" t="n">
-        <v>161442624</v>
+        <v>107210424</v>
       </c>
     </row>
     <row r="144">
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1227601536</v>
+        <v>1317883520</v>
       </c>
       <c r="C144" t="n">
-        <v>476308672</v>
+        <v>393090560</v>
       </c>
     </row>
     <row r="145">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1366812032</v>
+        <v>1201641984</v>
       </c>
       <c r="C145" t="n">
-        <v>226513232</v>
+        <v>330751424</v>
       </c>
     </row>
     <row r="146">
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>213871936</v>
+        <v>239522448</v>
       </c>
       <c r="C146" t="n">
-        <v>78606032</v>
+        <v>95875816</v>
       </c>
     </row>
     <row r="147">
@@ -2342,10 +2342,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>848100800</v>
+        <v>904267520</v>
       </c>
       <c r="C147" t="n">
-        <v>259168384</v>
+        <v>159110224</v>
       </c>
     </row>
     <row r="148">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1100103808</v>
+        <v>1235283712</v>
       </c>
       <c r="C148" t="n">
-        <v>396634080</v>
+        <v>263657168</v>
       </c>
     </row>
     <row r="149">
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1032391744</v>
+        <v>1273521920</v>
       </c>
       <c r="C149" t="n">
-        <v>17001014</v>
+        <v>356729888</v>
       </c>
     </row>
     <row r="150">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>889361152</v>
+        <v>876585152</v>
       </c>
       <c r="C150" t="n">
-        <v>488142816</v>
+        <v>233631264</v>
       </c>
     </row>
     <row r="151">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>705199168</v>
+        <v>763197888</v>
       </c>
       <c r="C151" t="n">
-        <v>227334896</v>
+        <v>146893776</v>
       </c>
     </row>
     <row r="152">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>556376384</v>
+        <v>562049088</v>
       </c>
       <c r="C152" t="n">
-        <v>174963888</v>
+        <v>97831168</v>
       </c>
     </row>
     <row r="153">
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>861839296</v>
+        <v>839897344</v>
       </c>
       <c r="C153" t="n">
-        <v>199914912</v>
+        <v>184792912</v>
       </c>
     </row>
     <row r="154">
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1319205248</v>
+        <v>1377047168</v>
       </c>
       <c r="C154" t="n">
-        <v>143117232</v>
+        <v>284358848</v>
       </c>
     </row>
     <row r="155">
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1270861312</v>
+        <v>1291452928</v>
       </c>
       <c r="C155" t="n">
-        <v>419768096</v>
+        <v>311540160</v>
       </c>
     </row>
     <row r="156">
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1029680192</v>
+        <v>1176090240</v>
       </c>
       <c r="C156" t="n">
-        <v>69928264</v>
+        <v>222539600</v>
       </c>
     </row>
     <row r="157">
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>560155520</v>
+        <v>538223872</v>
       </c>
       <c r="C157" t="n">
-        <v>123822896</v>
+        <v>93008896</v>
       </c>
     </row>
     <row r="158">
@@ -2485,10 +2485,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>458099456</v>
+        <v>1020875776</v>
       </c>
       <c r="C158" t="n">
-        <v>374920416</v>
+        <v>553938688</v>
       </c>
     </row>
     <row r="159">
@@ -2498,10 +2498,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1081848832</v>
+        <v>1192057472</v>
       </c>
       <c r="C159" t="n">
-        <v>172080752</v>
+        <v>273184896</v>
       </c>
     </row>
     <row r="160">
@@ -2511,10 +2511,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1530786176</v>
+        <v>1676715136</v>
       </c>
       <c r="C160" t="n">
-        <v>582564608</v>
+        <v>522154464</v>
       </c>
     </row>
     <row r="161">
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1146429952</v>
+        <v>1162586368</v>
       </c>
       <c r="C161" t="n">
-        <v>114139864</v>
+        <v>266735712</v>
       </c>
     </row>
     <row r="162">
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1047073472</v>
+        <v>923154176</v>
       </c>
       <c r="C162" t="n">
-        <v>145245856</v>
+        <v>215026032</v>
       </c>
     </row>
     <row r="163">
@@ -2550,10 +2550,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>772453824</v>
+        <v>1002395840</v>
       </c>
       <c r="C163" t="n">
-        <v>513876416</v>
+        <v>419376384</v>
       </c>
     </row>
     <row r="164">
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1107159424</v>
+        <v>1220576512</v>
       </c>
       <c r="C164" t="n">
-        <v>155093872</v>
+        <v>336252576</v>
       </c>
     </row>
     <row r="165">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1677133184</v>
+        <v>1784130944</v>
       </c>
       <c r="C165" t="n">
-        <v>821384000</v>
+        <v>637787648</v>
       </c>
     </row>
     <row r="166">
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>752609728</v>
+        <v>843052032</v>
       </c>
       <c r="C166" t="n">
-        <v>400247232</v>
+        <v>231395456</v>
       </c>
     </row>
     <row r="167">
@@ -2602,10 +2602,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>859354816</v>
+        <v>1144045440</v>
       </c>
       <c r="C167" t="n">
-        <v>144916976</v>
+        <v>258686720</v>
       </c>
     </row>
     <row r="168">
@@ -2615,10 +2615,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1254651648</v>
+        <v>1342822400</v>
       </c>
       <c r="C168" t="n">
-        <v>335707424</v>
+        <v>399888576</v>
       </c>
     </row>
     <row r="169">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1028637248</v>
+        <v>1296046720</v>
       </c>
       <c r="C169" t="n">
-        <v>112012808</v>
+        <v>403008480</v>
       </c>
     </row>
     <row r="170">
@@ -2641,10 +2641,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1237523968</v>
+        <v>962705600</v>
       </c>
       <c r="C170" t="n">
-        <v>282363360</v>
+        <v>313691264</v>
       </c>
     </row>
     <row r="171">
@@ -2654,10 +2654,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>489685888</v>
+        <v>422606848</v>
       </c>
       <c r="C171" t="n">
-        <v>11594267</v>
+        <v>98234592</v>
       </c>
     </row>
     <row r="172">
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>763069760</v>
+        <v>737652480</v>
       </c>
       <c r="C172" t="n">
-        <v>301053024</v>
+        <v>172662560</v>
       </c>
     </row>
     <row r="173">
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1292459136</v>
+        <v>1266390656</v>
       </c>
       <c r="C173" t="n">
-        <v>111552240</v>
+        <v>312298656</v>
       </c>
     </row>
     <row r="174">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>748047360</v>
+        <v>716010944</v>
       </c>
       <c r="C174" t="n">
-        <v>115842720</v>
+        <v>210874848</v>
       </c>
     </row>
     <row r="175">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2320780288</v>
+        <v>1603869440</v>
       </c>
       <c r="C175" t="n">
-        <v>512571424</v>
+        <v>633537088</v>
       </c>
     </row>
     <row r="176">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>886519040</v>
+        <v>788307840</v>
       </c>
       <c r="C176" t="n">
-        <v>367824288</v>
+        <v>108509744</v>
       </c>
     </row>
     <row r="177">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1155360384</v>
+        <v>1200496256</v>
       </c>
       <c r="C177" t="n">
-        <v>215008320</v>
+        <v>317543040</v>
       </c>
     </row>
     <row r="178">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1508732288</v>
+        <v>1251485824</v>
       </c>
       <c r="C178" t="n">
-        <v>445549152</v>
+        <v>395436672</v>
       </c>
     </row>
     <row r="179">
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>855430400</v>
+        <v>1009696704</v>
       </c>
       <c r="C179" t="n">
-        <v>194860784</v>
+        <v>248290128</v>
       </c>
     </row>
     <row r="180">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1306862208</v>
+        <v>1365212800</v>
       </c>
       <c r="C180" t="n">
-        <v>348075136</v>
+        <v>370345696</v>
       </c>
     </row>
     <row r="181">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1364972416</v>
+        <v>1040503872</v>
       </c>
       <c r="C181" t="n">
-        <v>516552480</v>
+        <v>273712768</v>
       </c>
     </row>
     <row r="182">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1616529024</v>
+        <v>1593000320</v>
       </c>
       <c r="C182" t="n">
-        <v>574157376</v>
+        <v>312131328</v>
       </c>
     </row>
     <row r="183">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>647943168</v>
+        <v>719224832</v>
       </c>
       <c r="C183" t="n">
-        <v>231045568</v>
+        <v>117201616</v>
       </c>
     </row>
     <row r="184">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>888554496</v>
+        <v>841097856</v>
       </c>
       <c r="C184" t="n">
-        <v>401190016</v>
+        <v>137373904</v>
       </c>
     </row>
     <row r="185">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>429901664</v>
+        <v>430507232</v>
       </c>
       <c r="C185" t="n">
-        <v>297721024</v>
+        <v>301815040</v>
       </c>
     </row>
     <row r="186">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1163306368</v>
+        <v>1131715200</v>
       </c>
       <c r="C186" t="n">
-        <v>251962912</v>
+        <v>341520960</v>
       </c>
     </row>
     <row r="187">
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1619428864</v>
+        <v>1578608256</v>
       </c>
       <c r="C187" t="n">
-        <v>196376304</v>
+        <v>563853760</v>
       </c>
     </row>
     <row r="188">
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>647255744</v>
+        <v>637622912</v>
       </c>
       <c r="C188" t="n">
-        <v>106706840</v>
+        <v>113518240</v>
       </c>
     </row>
     <row r="189">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>391599904</v>
+        <v>437752544</v>
       </c>
       <c r="C189" t="n">
-        <v>83741232</v>
+        <v>107606872</v>
       </c>
     </row>
     <row r="190">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>981335360</v>
+        <v>929624192</v>
       </c>
       <c r="C190" t="n">
-        <v>134503072</v>
+        <v>209875728</v>
       </c>
     </row>
     <row r="191">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>547776832</v>
+        <v>512296064</v>
       </c>
       <c r="C191" t="n">
-        <v>120281336</v>
+        <v>133246288</v>
       </c>
     </row>
     <row r="192">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>880066304</v>
+        <v>917875904</v>
       </c>
       <c r="C192" t="n">
-        <v>213947584</v>
+        <v>218825664</v>
       </c>
     </row>
     <row r="193">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>497752032</v>
+        <v>610640576</v>
       </c>
       <c r="C193" t="n">
-        <v>99297080</v>
+        <v>174242032</v>
       </c>
     </row>
     <row r="194">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1225608064</v>
+        <v>1422710528</v>
       </c>
       <c r="C194" t="n">
-        <v>196998592</v>
+        <v>431334240</v>
       </c>
     </row>
     <row r="195">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1425775488</v>
+        <v>1364865536</v>
       </c>
       <c r="C195" t="n">
-        <v>541693376</v>
+        <v>306612032</v>
       </c>
     </row>
     <row r="196">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>742706112</v>
+        <v>791453952</v>
       </c>
       <c r="C196" t="n">
-        <v>407249152</v>
+        <v>168932240</v>
       </c>
     </row>
     <row r="197">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>505109216</v>
+        <v>544202752</v>
       </c>
       <c r="C197" t="n">
-        <v>114295456</v>
+        <v>320830624</v>
       </c>
     </row>
     <row r="198">
@@ -3005,10 +3005,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>458249312</v>
+        <v>567100224</v>
       </c>
       <c r="C198" t="n">
-        <v>72990144</v>
+        <v>137347104</v>
       </c>
     </row>
     <row r="199">
@@ -3018,10 +3018,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>878501056</v>
+        <v>882156672</v>
       </c>
       <c r="C199" t="n">
-        <v>60627816</v>
+        <v>207477120</v>
       </c>
     </row>
     <row r="200">
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1398703744</v>
+        <v>1327719936</v>
       </c>
       <c r="C200" t="n">
-        <v>466797408</v>
+        <v>350841888</v>
       </c>
     </row>
     <row r="201">
@@ -3044,10 +3044,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>365201920</v>
+        <v>452953952</v>
       </c>
       <c r="C201" t="n">
-        <v>185129792</v>
+        <v>286013344</v>
       </c>
     </row>
     <row r="202">
@@ -3057,10 +3057,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>645660096</v>
+        <v>878698496</v>
       </c>
       <c r="C202" t="n">
-        <v>393291200</v>
+        <v>337505088</v>
       </c>
     </row>
     <row r="203">
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1071078912</v>
+        <v>1316369792</v>
       </c>
       <c r="C203" t="n">
-        <v>453079008</v>
+        <v>420755296</v>
       </c>
     </row>
     <row r="204">
@@ -3083,10 +3083,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>928220928</v>
+        <v>1409848192</v>
       </c>
       <c r="C204" t="n">
-        <v>465372032</v>
+        <v>918554112</v>
       </c>
     </row>
     <row r="205">
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>767772224</v>
+        <v>725202624</v>
       </c>
       <c r="C205" t="n">
-        <v>308129472</v>
+        <v>206868320</v>
       </c>
     </row>
     <row r="206">
@@ -3109,10 +3109,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>431449440</v>
+        <v>447843200</v>
       </c>
       <c r="C206" t="n">
-        <v>207651776</v>
+        <v>215897584</v>
       </c>
     </row>
     <row r="207">
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>459476896</v>
+        <v>340158016</v>
       </c>
       <c r="C207" t="n">
-        <v>194418496</v>
+        <v>150449888</v>
       </c>
     </row>
     <row r="208">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1273372928</v>
+        <v>1255213824</v>
       </c>
       <c r="C208" t="n">
-        <v>665048832</v>
+        <v>351180864</v>
       </c>
     </row>
     <row r="209">
@@ -3148,10 +3148,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1073454656</v>
+        <v>987724736</v>
       </c>
       <c r="C209" t="n">
-        <v>239571696</v>
+        <v>180824016</v>
       </c>
     </row>
     <row r="210">
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>651504640</v>
+        <v>659458368</v>
       </c>
       <c r="C210" t="n">
-        <v>98262008</v>
+        <v>191250112</v>
       </c>
     </row>
     <row r="211">
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>762723008</v>
+        <v>687476544</v>
       </c>
       <c r="C211" t="n">
-        <v>175671760</v>
+        <v>156508912</v>
       </c>
     </row>
     <row r="212">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1517390976</v>
+        <v>1478544640</v>
       </c>
       <c r="C212" t="n">
-        <v>369002944</v>
+        <v>298880960</v>
       </c>
     </row>
     <row r="213">
@@ -3200,10 +3200,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>878422272</v>
+        <v>725456000</v>
       </c>
       <c r="C213" t="n">
-        <v>133277800</v>
+        <v>163444656</v>
       </c>
     </row>
     <row r="214">
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1011652288</v>
+        <v>1108024704</v>
       </c>
       <c r="C214" t="n">
-        <v>96173792</v>
+        <v>193725600</v>
       </c>
     </row>
     <row r="215">
@@ -3226,10 +3226,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>478281440</v>
+        <v>443210208</v>
       </c>
       <c r="C215" t="n">
-        <v>268824032</v>
+        <v>166837824</v>
       </c>
     </row>
     <row r="216">
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1292397184</v>
+        <v>1144999808</v>
       </c>
       <c r="C216" t="n">
-        <v>361566688</v>
+        <v>177433200</v>
       </c>
     </row>
     <row r="217">
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>668345088</v>
+        <v>605344960</v>
       </c>
       <c r="C217" t="n">
-        <v>101221328</v>
+        <v>131052304</v>
       </c>
     </row>
     <row r="218">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>592441664</v>
+        <v>812137344</v>
       </c>
       <c r="C218" t="n">
-        <v>307929440</v>
+        <v>238849264</v>
       </c>
     </row>
     <row r="219">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>434936448</v>
+        <v>474293600</v>
       </c>
       <c r="C219" t="n">
-        <v>88289488</v>
+        <v>91409776</v>
       </c>
     </row>
     <row r="220">
@@ -3291,10 +3291,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>492832000</v>
+        <v>394906016</v>
       </c>
       <c r="C220" t="n">
-        <v>169066736</v>
+        <v>126488312</v>
       </c>
     </row>
     <row r="221">
@@ -3304,10 +3304,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1188440704</v>
+        <v>1234121856</v>
       </c>
       <c r="C221" t="n">
-        <v>231453424</v>
+        <v>362289216</v>
       </c>
     </row>
     <row r="222">
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1337375104</v>
+        <v>986332224</v>
       </c>
       <c r="C222" t="n">
-        <v>115425816</v>
+        <v>296614400</v>
       </c>
     </row>
     <row r="223">
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>859264448</v>
+        <v>770833280</v>
       </c>
       <c r="C223" t="n">
-        <v>126089544</v>
+        <v>194925232</v>
       </c>
     </row>
     <row r="224">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1098294784</v>
+        <v>943524160</v>
       </c>
       <c r="C224" t="n">
-        <v>364532960</v>
+        <v>236692240</v>
       </c>
     </row>
     <row r="225">
@@ -3356,10 +3356,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1322532992</v>
+        <v>1162448640</v>
       </c>
       <c r="C225" t="n">
-        <v>393534272</v>
+        <v>216813344</v>
       </c>
     </row>
     <row r="226">
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1283953536</v>
+        <v>1520830592</v>
       </c>
       <c r="C226" t="n">
-        <v>243584704</v>
+        <v>281669088</v>
       </c>
     </row>
     <row r="227">
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1046782656</v>
+        <v>905425728</v>
       </c>
       <c r="C227" t="n">
-        <v>132145720</v>
+        <v>200662016</v>
       </c>
     </row>
     <row r="228">
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>736533056</v>
+        <v>652247296</v>
       </c>
       <c r="C228" t="n">
-        <v>210225024</v>
+        <v>102301520</v>
       </c>
     </row>
     <row r="229">
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1153533440</v>
+        <v>1073957760</v>
       </c>
       <c r="C229" t="n">
-        <v>760510080</v>
+        <v>671903744</v>
       </c>
     </row>
     <row r="230">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1360421376</v>
+        <v>1376457600</v>
       </c>
       <c r="C230" t="n">
-        <v>281660928</v>
+        <v>327669472</v>
       </c>
     </row>
     <row r="231">
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1437283712</v>
+        <v>1225420288</v>
       </c>
       <c r="C231" t="n">
-        <v>391823104</v>
+        <v>308256768</v>
       </c>
     </row>
     <row r="232">
@@ -3447,10 +3447,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>734249152</v>
+        <v>906011200</v>
       </c>
       <c r="C232" t="n">
-        <v>193592560</v>
+        <v>425737792</v>
       </c>
     </row>
     <row r="233">
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>570180224</v>
+        <v>583343424</v>
       </c>
       <c r="C233" t="n">
-        <v>194352880</v>
+        <v>210124080</v>
       </c>
     </row>
     <row r="234">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>540957632</v>
+        <v>505656256</v>
       </c>
       <c r="C234" t="n">
-        <v>283907296</v>
+        <v>209017328</v>
       </c>
     </row>
     <row r="235">
@@ -3486,10 +3486,10 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>754573504</v>
+        <v>627806976</v>
       </c>
       <c r="C235" t="n">
-        <v>210823168</v>
+        <v>191241232</v>
       </c>
     </row>
     <row r="236">
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1202655616</v>
+        <v>1043124096</v>
       </c>
       <c r="C236" t="n">
-        <v>247108288</v>
+        <v>278146944</v>
       </c>
     </row>
     <row r="237">
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1864703104</v>
+        <v>1863327360</v>
       </c>
       <c r="C237" t="n">
-        <v>845921088</v>
+        <v>550119488</v>
       </c>
     </row>
     <row r="238">
@@ -3525,10 +3525,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>740408640</v>
+        <v>741564416</v>
       </c>
       <c r="C238" t="n">
-        <v>29178782</v>
+        <v>167558656</v>
       </c>
     </row>
     <row r="239">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>906444096</v>
+        <v>764060864</v>
       </c>
       <c r="C239" t="n">
-        <v>120522768</v>
+        <v>144609104</v>
       </c>
     </row>
     <row r="240">
@@ -3551,10 +3551,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1472306560</v>
+        <v>1412335104</v>
       </c>
       <c r="C240" t="n">
-        <v>179334112</v>
+        <v>382025088</v>
       </c>
     </row>
     <row r="241">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>963397632</v>
+        <v>989922880</v>
       </c>
       <c r="C241" t="n">
-        <v>151292480</v>
+        <v>119588232</v>
       </c>
     </row>
     <row r="242">
@@ -3577,10 +3577,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1581002112</v>
+        <v>1322625920</v>
       </c>
       <c r="C242" t="n">
-        <v>565144704</v>
+        <v>345589856</v>
       </c>
     </row>
     <row r="243">
@@ -3590,10 +3590,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1701910912</v>
+        <v>1669312256</v>
       </c>
       <c r="C243" t="n">
-        <v>915766080</v>
+        <v>446536032</v>
       </c>
     </row>
     <row r="244">
@@ -3603,10 +3603,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>328466400</v>
+        <v>252514480</v>
       </c>
       <c r="C244" t="n">
-        <v>223603072</v>
+        <v>120119088</v>
       </c>
     </row>
     <row r="245">
@@ -3616,10 +3616,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>765521152</v>
+        <v>512099776</v>
       </c>
       <c r="C245" t="n">
-        <v>411909600</v>
+        <v>291383744</v>
       </c>
     </row>
     <row r="246">
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1284058240</v>
+        <v>1330891008</v>
       </c>
       <c r="C246" t="n">
-        <v>150122960</v>
+        <v>270687840</v>
       </c>
     </row>
     <row r="247">
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>941162816</v>
+        <v>841829824</v>
       </c>
       <c r="C247" t="n">
-        <v>229118720</v>
+        <v>229000768</v>
       </c>
     </row>
     <row r="248">
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>828273152</v>
+        <v>748251456</v>
       </c>
       <c r="C248" t="n">
-        <v>234088304</v>
+        <v>188224720</v>
       </c>
     </row>
     <row r="249">
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>873065792</v>
+        <v>1198910976</v>
       </c>
       <c r="C249" t="n">
-        <v>59550120</v>
+        <v>250554912</v>
       </c>
     </row>
     <row r="250">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>626529536</v>
+        <v>689974528</v>
       </c>
       <c r="C250" t="n">
-        <v>187919152</v>
+        <v>372530464</v>
       </c>
     </row>
     <row r="251">
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>767566592</v>
+        <v>833023936</v>
       </c>
       <c r="C251" t="n">
-        <v>162758880</v>
+        <v>182066528</v>
       </c>
     </row>
     <row r="252">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1104910592</v>
+        <v>1069923776</v>
       </c>
       <c r="C252" t="n">
-        <v>119583584</v>
+        <v>214449680</v>
       </c>
     </row>
     <row r="253">
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>934497792</v>
+        <v>1301932928</v>
       </c>
       <c r="C253" t="n">
-        <v>350751712</v>
+        <v>245887440</v>
       </c>
     </row>
     <row r="254">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>825223680</v>
+        <v>829578112</v>
       </c>
       <c r="C254" t="n">
-        <v>286287488</v>
+        <v>150562112</v>
       </c>
     </row>
     <row r="255">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>905320640</v>
+        <v>1192359808</v>
       </c>
       <c r="C255" t="n">
-        <v>209312064</v>
+        <v>213207088</v>
       </c>
     </row>
     <row r="256">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>415474688</v>
+        <v>409495872</v>
       </c>
       <c r="C256" t="n">
-        <v>41474000</v>
+        <v>145527200</v>
       </c>
     </row>
     <row r="257">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>992411200</v>
+        <v>1045873600</v>
       </c>
       <c r="C257" t="n">
-        <v>111118880</v>
+        <v>176380784</v>
       </c>
     </row>
     <row r="258">
@@ -3785,10 +3785,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1150396800</v>
+        <v>1347094912</v>
       </c>
       <c r="C258" t="n">
-        <v>972558912</v>
+        <v>568507904</v>
       </c>
     </row>
     <row r="259">
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1396263040</v>
+        <v>1145053312</v>
       </c>
       <c r="C259" t="n">
-        <v>567995392</v>
+        <v>369852960</v>
       </c>
     </row>
     <row r="260">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>364139136</v>
+        <v>255709504</v>
       </c>
       <c r="C260" t="n">
-        <v>146532336</v>
+        <v>72203224</v>
       </c>
     </row>
     <row r="261">
@@ -3824,10 +3824,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>411270880</v>
+        <v>364458720</v>
       </c>
       <c r="C261" t="n">
-        <v>232140656</v>
+        <v>251248064</v>
       </c>
     </row>
     <row r="262">
@@ -3837,10 +3837,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>846040128</v>
+        <v>536576896</v>
       </c>
       <c r="C262" t="n">
-        <v>581397120</v>
+        <v>271621632</v>
       </c>
     </row>
     <row r="263">
@@ -3850,10 +3850,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>653288320</v>
+        <v>550617472</v>
       </c>
       <c r="C263" t="n">
-        <v>305496544</v>
+        <v>131423392</v>
       </c>
     </row>
     <row r="264">
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>365344480</v>
+        <v>306449056</v>
       </c>
       <c r="C264" t="n">
-        <v>65338600</v>
+        <v>99147560</v>
       </c>
     </row>
     <row r="265">
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>919814656</v>
+        <v>845228608</v>
       </c>
       <c r="C265" t="n">
-        <v>334646560</v>
+        <v>137134144</v>
       </c>
     </row>
     <row r="266">
@@ -3889,10 +3889,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>576088064</v>
+        <v>458545952</v>
       </c>
       <c r="C266" t="n">
-        <v>102567240</v>
+        <v>78381984</v>
       </c>
     </row>
     <row r="267">
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>536589696</v>
+        <v>478073440</v>
       </c>
       <c r="C267" t="n">
-        <v>265075520</v>
+        <v>206155856</v>
       </c>
     </row>
     <row r="268">
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>897774592</v>
+        <v>643659776</v>
       </c>
       <c r="C268" t="n">
-        <v>130875968</v>
+        <v>240049664</v>
       </c>
     </row>
     <row r="269">
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1849785984</v>
+        <v>1837377408</v>
       </c>
       <c r="C269" t="n">
-        <v>1145829248</v>
+        <v>645379840</v>
       </c>
     </row>
     <row r="270">
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>156801168</v>
+        <v>187220064</v>
       </c>
       <c r="C270" t="n">
-        <v>55289988</v>
+        <v>57774624</v>
       </c>
     </row>
     <row r="271">
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2015045248</v>
+        <v>1826863232</v>
       </c>
       <c r="C271" t="n">
-        <v>440737984</v>
+        <v>801756544</v>
       </c>
     </row>
     <row r="272">
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>907014144</v>
+        <v>816419264</v>
       </c>
       <c r="C272" t="n">
-        <v>150940080</v>
+        <v>186692144</v>
       </c>
     </row>
     <row r="273">
@@ -3980,10 +3980,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>868050368</v>
+        <v>1213116672</v>
       </c>
       <c r="C273" t="n">
-        <v>282093728</v>
+        <v>527531392</v>
       </c>
     </row>
     <row r="274">
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>563976064</v>
+        <v>492755520</v>
       </c>
       <c r="C274" t="n">
-        <v>241779424</v>
+        <v>189502896</v>
       </c>
     </row>
     <row r="275">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>771247040</v>
+        <v>701554688</v>
       </c>
       <c r="C275" t="n">
-        <v>154648400</v>
+        <v>177158160</v>
       </c>
     </row>
     <row r="276">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>695064256</v>
+        <v>662520000</v>
       </c>
       <c r="C276" t="n">
-        <v>88986936</v>
+        <v>159825824</v>
       </c>
     </row>
     <row r="277">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>558523008</v>
+        <v>427458464</v>
       </c>
       <c r="C277" t="n">
-        <v>151638848</v>
+        <v>87838256</v>
       </c>
     </row>
     <row r="278">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1034572992</v>
+        <v>923785600</v>
       </c>
       <c r="C278" t="n">
-        <v>88295736</v>
+        <v>191003808</v>
       </c>
     </row>
     <row r="279">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1437871488</v>
+        <v>1319884032</v>
       </c>
       <c r="C279" t="n">
-        <v>88031480</v>
+        <v>358684896</v>
       </c>
     </row>
     <row r="280">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>725312768</v>
+        <v>746076864</v>
       </c>
       <c r="C280" t="n">
-        <v>211262000</v>
+        <v>165236448</v>
       </c>
     </row>
     <row r="281">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>900559104</v>
+        <v>996577920</v>
       </c>
       <c r="C281" t="n">
-        <v>147528976</v>
+        <v>262071152</v>
       </c>
     </row>
     <row r="282">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>930190400</v>
+        <v>848856128</v>
       </c>
       <c r="C282" t="n">
-        <v>198608256</v>
+        <v>222869856</v>
       </c>
     </row>
     <row r="283">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>817925824</v>
+        <v>983064000</v>
       </c>
       <c r="C283" t="n">
-        <v>560784256</v>
+        <v>561340160</v>
       </c>
     </row>
     <row r="284">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>964783872</v>
+        <v>1032595584</v>
       </c>
       <c r="C284" t="n">
-        <v>111379032</v>
+        <v>160388240</v>
       </c>
     </row>
     <row r="285">
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1426171008</v>
+        <v>1517303168</v>
       </c>
       <c r="C285" t="n">
-        <v>597985856</v>
+        <v>443723968</v>
       </c>
     </row>
     <row r="286">
@@ -4149,10 +4149,10 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>870893824</v>
+        <v>975003776</v>
       </c>
       <c r="C286" t="n">
-        <v>300302560</v>
+        <v>259126816</v>
       </c>
     </row>
     <row r="287">
@@ -4162,10 +4162,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>563714752</v>
+        <v>584972672</v>
       </c>
       <c r="C287" t="n">
-        <v>181119456</v>
+        <v>154688832</v>
       </c>
     </row>
     <row r="288">
@@ -4175,10 +4175,10 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>478035424</v>
+        <v>417072416</v>
       </c>
       <c r="C288" t="n">
-        <v>184564208</v>
+        <v>139094512</v>
       </c>
     </row>
     <row r="289">
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1557014144</v>
+        <v>2105046272</v>
       </c>
       <c r="C289" t="n">
-        <v>753764288</v>
+        <v>1025073600</v>
       </c>
     </row>
     <row r="290">
@@ -4201,10 +4201,10 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>645091584</v>
+        <v>467479936</v>
       </c>
       <c r="C290" t="n">
-        <v>326689088</v>
+        <v>196365136</v>
       </c>
     </row>
     <row r="291">
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>433166176</v>
+        <v>479543488</v>
       </c>
       <c r="C291" t="n">
-        <v>86846896</v>
+        <v>150104912</v>
       </c>
     </row>
     <row r="292">
@@ -4227,10 +4227,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>400346336</v>
+        <v>214018336</v>
       </c>
       <c r="C292" t="n">
-        <v>222896624</v>
+        <v>113074464</v>
       </c>
     </row>
     <row r="293">
@@ -4240,10 +4240,10 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1324090240</v>
+        <v>1104920832</v>
       </c>
       <c r="C293" t="n">
-        <v>350272544</v>
+        <v>204052576</v>
       </c>
     </row>
     <row r="294">
@@ -4253,10 +4253,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>439632896</v>
+        <v>576213952</v>
       </c>
       <c r="C294" t="n">
-        <v>132957136</v>
+        <v>266508048</v>
       </c>
     </row>
     <row r="295">
@@ -4266,10 +4266,10 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>986468288</v>
+        <v>866938560</v>
       </c>
       <c r="C295" t="n">
-        <v>251628560</v>
+        <v>210103824</v>
       </c>
     </row>
     <row r="296">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1040698176</v>
+        <v>957137024</v>
       </c>
       <c r="C296" t="n">
-        <v>318832928</v>
+        <v>263350656</v>
       </c>
     </row>
     <row r="297">
@@ -4292,10 +4292,10 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>531858720</v>
+        <v>605707840</v>
       </c>
       <c r="C297" t="n">
-        <v>459233760</v>
+        <v>428849664</v>
       </c>
     </row>
     <row r="298">
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1027452096</v>
+        <v>787802304</v>
       </c>
       <c r="C298" t="n">
-        <v>298174432</v>
+        <v>135069776</v>
       </c>
     </row>
     <row r="299">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>397102304</v>
+        <v>362228032</v>
       </c>
       <c r="C299" t="n">
-        <v>260426800</v>
+        <v>212194704</v>
       </c>
     </row>
     <row r="300">
@@ -4331,10 +4331,10 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>500672896</v>
+        <v>467855680</v>
       </c>
       <c r="C300" t="n">
-        <v>176638480</v>
+        <v>208635824</v>
       </c>
     </row>
     <row r="301">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>736418112</v>
+        <v>493260224</v>
       </c>
       <c r="C301" t="n">
-        <v>129028504</v>
+        <v>157971968</v>
       </c>
     </row>
     <row r="302">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>314670432</v>
+        <v>253977872</v>
       </c>
       <c r="C302" t="n">
-        <v>119737320</v>
+        <v>79314080</v>
       </c>
     </row>
     <row r="303">
@@ -4370,10 +4370,10 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>554820416</v>
+        <v>300543680</v>
       </c>
       <c r="C303" t="n">
-        <v>723209600</v>
+        <v>220158368</v>
       </c>
     </row>
     <row r="304">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1506918016</v>
+        <v>1450317952</v>
       </c>
       <c r="C304" t="n">
-        <v>217905600</v>
+        <v>531153824</v>
       </c>
     </row>
     <row r="305">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1142822272</v>
+        <v>1306074624</v>
       </c>
       <c r="C305" t="n">
-        <v>230145808</v>
+        <v>386142432</v>
       </c>
     </row>
     <row r="306">
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>301906656</v>
+        <v>369908320</v>
       </c>
       <c r="C306" t="n">
-        <v>128492824</v>
+        <v>111513824</v>
       </c>
     </row>
     <row r="307">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>634286528</v>
+        <v>793614656</v>
       </c>
       <c r="C307" t="n">
-        <v>258562208</v>
+        <v>307360448</v>
       </c>
     </row>
     <row r="308">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>851987264</v>
+        <v>1058111232</v>
       </c>
       <c r="C308" t="n">
-        <v>78784584</v>
+        <v>284533216</v>
       </c>
     </row>
     <row r="309">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>338102016</v>
+        <v>546359808</v>
       </c>
       <c r="C309" t="n">
-        <v>55633972</v>
+        <v>156518176</v>
       </c>
     </row>
     <row r="310">
@@ -4461,10 +4461,10 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>939220672</v>
+        <v>1039473280</v>
       </c>
       <c r="C310" t="n">
-        <v>277709920</v>
+        <v>476341984</v>
       </c>
     </row>
     <row r="311">
@@ -4474,10 +4474,10 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>651359552</v>
+        <v>615235776</v>
       </c>
       <c r="C311" t="n">
-        <v>128434856</v>
+        <v>162057568</v>
       </c>
     </row>
     <row r="312">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>977041216</v>
+        <v>1329302016</v>
       </c>
       <c r="C312" t="n">
-        <v>113478184</v>
+        <v>257916144</v>
       </c>
     </row>
     <row r="313">
@@ -4500,10 +4500,10 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>756700864</v>
+        <v>673353344</v>
       </c>
       <c r="C313" t="n">
-        <v>222667408</v>
+        <v>160033376</v>
       </c>
     </row>
     <row r="314">
@@ -4513,10 +4513,10 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1223718016</v>
+        <v>1227131648</v>
       </c>
       <c r="C314" t="n">
-        <v>195574080</v>
+        <v>216012640</v>
       </c>
     </row>
     <row r="315">
@@ -4526,10 +4526,10 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>277074752</v>
+        <v>335367136</v>
       </c>
       <c r="C315" t="n">
-        <v>126265008</v>
+        <v>128966544</v>
       </c>
     </row>
     <row r="316">
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1050756928</v>
+        <v>1211334016</v>
       </c>
       <c r="C316" t="n">
-        <v>101791088</v>
+        <v>177113776</v>
       </c>
     </row>
     <row r="317">
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>518405120</v>
+        <v>657040640</v>
       </c>
       <c r="C317" t="n">
-        <v>273876448</v>
+        <v>274988096</v>
       </c>
     </row>
     <row r="318">
@@ -4565,10 +4565,10 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>459202464</v>
+        <v>380939424</v>
       </c>
       <c r="C318" t="n">
-        <v>125331264</v>
+        <v>80974176</v>
       </c>
     </row>
     <row r="319">
@@ -4578,10 +4578,10 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>780218304</v>
+        <v>1042600000</v>
       </c>
       <c r="C319" t="n">
-        <v>218214960</v>
+        <v>263915248</v>
       </c>
     </row>
     <row r="320">
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>643858688</v>
+        <v>574183552</v>
       </c>
       <c r="C320" t="n">
-        <v>21691714</v>
+        <v>120332848</v>
       </c>
     </row>
     <row r="321">
@@ -4604,10 +4604,10 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>502273376</v>
+        <v>604714112</v>
       </c>
       <c r="C321" t="n">
-        <v>52984576</v>
+        <v>100214568</v>
       </c>
     </row>
     <row r="322">
@@ -4617,10 +4617,10 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>721191168</v>
+        <v>591092672</v>
       </c>
       <c r="C322" t="n">
-        <v>181082064</v>
+        <v>186885728</v>
       </c>
     </row>
     <row r="323">
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>441116000</v>
+        <v>613787968</v>
       </c>
       <c r="C323" t="n">
-        <v>166368416</v>
+        <v>240087792</v>
       </c>
     </row>
     <row r="324">
@@ -4643,10 +4643,10 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>796754368</v>
+        <v>871702784</v>
       </c>
       <c r="C324" t="n">
-        <v>201338640</v>
+        <v>313357088</v>
       </c>
     </row>
     <row r="325">
@@ -4656,10 +4656,10 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>792415552</v>
+        <v>822686592</v>
       </c>
       <c r="C325" t="n">
-        <v>407183008</v>
+        <v>346456000</v>
       </c>
     </row>
     <row r="326">
@@ -4669,10 +4669,10 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>450145184</v>
+        <v>638022336</v>
       </c>
       <c r="C326" t="n">
-        <v>36638380</v>
+        <v>180575696</v>
       </c>
     </row>
     <row r="327">
@@ -4682,10 +4682,10 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>613648128</v>
+        <v>951086208</v>
       </c>
       <c r="C327" t="n">
-        <v>254947872</v>
+        <v>373703456</v>
       </c>
     </row>
     <row r="328">
@@ -4695,10 +4695,10 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>245113168</v>
+        <v>313434688</v>
       </c>
       <c r="C328" t="n">
-        <v>64679288</v>
+        <v>78068024</v>
       </c>
     </row>
     <row r="329">
@@ -4708,10 +4708,10 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>802765312</v>
+        <v>763372864</v>
       </c>
       <c r="C329" t="n">
-        <v>5004462</v>
+        <v>232502048</v>
       </c>
     </row>
     <row r="330">
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>337367552</v>
+        <v>374415840</v>
       </c>
       <c r="C330" t="n">
-        <v>66528856</v>
+        <v>108727512</v>
       </c>
     </row>
     <row r="331">
@@ -4734,10 +4734,10 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>672899392</v>
+        <v>911125632</v>
       </c>
       <c r="C331" t="n">
-        <v>262784624</v>
+        <v>297042528</v>
       </c>
     </row>
     <row r="332">
@@ -4747,10 +4747,10 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>436027680</v>
+        <v>621066048</v>
       </c>
       <c r="C332" t="n">
-        <v>58652792</v>
+        <v>265593200</v>
       </c>
     </row>
     <row r="333">
@@ -4760,10 +4760,10 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>589746688</v>
+        <v>757690752</v>
       </c>
       <c r="C333" t="n">
-        <v>126627936</v>
+        <v>205788368</v>
       </c>
     </row>
     <row r="334">
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>336157920</v>
+        <v>486489440</v>
       </c>
       <c r="C334" t="n">
-        <v>47520576</v>
+        <v>159612448</v>
       </c>
     </row>
     <row r="335">
@@ -4786,10 +4786,10 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>509720832</v>
+        <v>612227904</v>
       </c>
       <c r="C335" t="n">
-        <v>118922960</v>
+        <v>201171984</v>
       </c>
     </row>
     <row r="336">
@@ -4799,10 +4799,10 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>452701600</v>
+        <v>475170176</v>
       </c>
       <c r="C336" t="n">
-        <v>125266448</v>
+        <v>109794064</v>
       </c>
     </row>
     <row r="337">
@@ -4812,10 +4812,10 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>850360576</v>
+        <v>923758464</v>
       </c>
       <c r="C337" t="n">
-        <v>292080800</v>
+        <v>148508960</v>
       </c>
     </row>
     <row r="338">
@@ -4825,10 +4825,10 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>977193152</v>
+        <v>1356392320</v>
       </c>
       <c r="C338" t="n">
-        <v>493969824</v>
+        <v>380591168</v>
       </c>
     </row>
     <row r="339">
@@ -4838,10 +4838,10 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>317738848</v>
+        <v>612342784</v>
       </c>
       <c r="C339" t="n">
-        <v>16544978</v>
+        <v>240190864</v>
       </c>
     </row>
     <row r="340">
@@ -4851,10 +4851,10 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>260694960</v>
+        <v>326647232</v>
       </c>
       <c r="C340" t="n">
-        <v>86349048</v>
+        <v>106580784</v>
       </c>
     </row>
     <row r="341">
@@ -4864,10 +4864,10 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>267622320</v>
+        <v>376275680</v>
       </c>
       <c r="C341" t="n">
-        <v>56369996</v>
+        <v>125227912</v>
       </c>
     </row>
     <row r="342">
@@ -4877,10 +4877,10 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>119733992</v>
+        <v>218490976</v>
       </c>
       <c r="C342" t="n">
-        <v>18907582</v>
+        <v>56780224</v>
       </c>
     </row>
     <row r="343">
@@ -4890,10 +4890,10 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1075710848</v>
+        <v>934826560</v>
       </c>
       <c r="C343" t="n">
-        <v>502429824</v>
+        <v>155869712</v>
       </c>
     </row>
     <row r="344">
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>639474240</v>
+        <v>798187200</v>
       </c>
       <c r="C344" t="n">
-        <v>176538128</v>
+        <v>221609936</v>
       </c>
     </row>
     <row r="345">
@@ -4916,10 +4916,10 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>898536384</v>
+        <v>968166848</v>
       </c>
       <c r="C345" t="n">
-        <v>98999344</v>
+        <v>117710632</v>
       </c>
     </row>
     <row r="346">
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1182905472</v>
+        <v>1017618240</v>
       </c>
       <c r="C346" t="n">
-        <v>137932592</v>
+        <v>252388576</v>
       </c>
     </row>
     <row r="347">
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>984913472</v>
+        <v>982176064</v>
       </c>
       <c r="C347" t="n">
-        <v>184379200</v>
+        <v>139937792</v>
       </c>
     </row>
     <row r="348">
@@ -4955,10 +4955,10 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>532050176</v>
+        <v>509804416</v>
       </c>
       <c r="C348" t="n">
-        <v>131637680</v>
+        <v>100866880</v>
       </c>
     </row>
     <row r="349">
@@ -4968,10 +4968,10 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>927706048</v>
+        <v>1118816640</v>
       </c>
       <c r="C349" t="n">
-        <v>18607450</v>
+        <v>160895568</v>
       </c>
     </row>
     <row r="350">
@@ -4981,10 +4981,10 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1344343808</v>
+        <v>1625402496</v>
       </c>
       <c r="C350" t="n">
-        <v>517995136</v>
+        <v>484122432</v>
       </c>
     </row>
     <row r="351">
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>2439770112</v>
+        <v>1831365376</v>
       </c>
       <c r="C351" t="n">
-        <v>373921952</v>
+        <v>726191680</v>
       </c>
     </row>
     <row r="352">
@@ -5007,10 +5007,10 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1517102976</v>
+        <v>1379069312</v>
       </c>
       <c r="C352" t="n">
-        <v>582974208</v>
+        <v>297388896</v>
       </c>
     </row>
     <row r="353">
@@ -5020,10 +5020,10 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>420711520</v>
+        <v>373444800</v>
       </c>
       <c r="C353" t="n">
-        <v>225273456</v>
+        <v>190075664</v>
       </c>
     </row>
     <row r="354">
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>966926912</v>
+        <v>1084696576</v>
       </c>
       <c r="C354" t="n">
-        <v>334137568</v>
+        <v>240757424</v>
       </c>
     </row>
     <row r="355">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>530769952</v>
+        <v>577875328</v>
       </c>
       <c r="C355" t="n">
-        <v>174902848</v>
+        <v>285384096</v>
       </c>
     </row>
     <row r="356">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>943698112</v>
+        <v>1138619264</v>
       </c>
       <c r="C356" t="n">
-        <v>439136480</v>
+        <v>268200688</v>
       </c>
     </row>
     <row r="357">
@@ -5072,10 +5072,10 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>908746048</v>
+        <v>1111021056</v>
       </c>
       <c r="C357" t="n">
-        <v>251959616</v>
+        <v>285513984</v>
       </c>
     </row>
     <row r="358">
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1123868544</v>
+        <v>1059984576</v>
       </c>
       <c r="C358" t="n">
-        <v>49606380</v>
+        <v>210739888</v>
       </c>
     </row>
     <row r="359">
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>840865856</v>
+        <v>984952192</v>
       </c>
       <c r="C359" t="n">
-        <v>465585696</v>
+        <v>264884784</v>
       </c>
     </row>
     <row r="360">
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>780560192</v>
+        <v>887826304</v>
       </c>
       <c r="C360" t="n">
-        <v>441038848</v>
+        <v>279588736</v>
       </c>
     </row>
     <row r="361">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1069744320</v>
+        <v>1294422272</v>
       </c>
       <c r="C361" t="n">
-        <v>439266496</v>
+        <v>492085280</v>
       </c>
     </row>
     <row r="362">
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1055906880</v>
+        <v>1275795584</v>
       </c>
       <c r="C362" t="n">
-        <v>311554848</v>
+        <v>404947584</v>
       </c>
     </row>
     <row r="363">
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>942553600</v>
+        <v>1231196928</v>
       </c>
       <c r="C363" t="n">
-        <v>363373248</v>
+        <v>481569056</v>
       </c>
     </row>
     <row r="364">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1269120512</v>
+        <v>1369994112</v>
       </c>
       <c r="C364" t="n">
-        <v>96584368</v>
+        <v>263121968</v>
       </c>
     </row>
     <row r="365">
@@ -5176,10 +5176,10 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>492615328</v>
+        <v>486585888</v>
       </c>
       <c r="C365" t="n">
-        <v>272163968</v>
+        <v>262339184</v>
       </c>
     </row>
     <row r="366">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>667166656</v>
+        <v>505164512</v>
       </c>
       <c r="C366" t="n">
-        <v>146056000</v>
+        <v>201137440</v>
       </c>
     </row>
     <row r="367">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1044663104</v>
+        <v>988464896</v>
       </c>
       <c r="C367" t="n">
-        <v>996422784</v>
+        <v>641867712</v>
       </c>
     </row>
     <row r="368">
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1192507520</v>
+        <v>1411460480</v>
       </c>
       <c r="C368" t="n">
-        <v>168153360</v>
+        <v>381049376</v>
       </c>
     </row>
     <row r="369">
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1314302592</v>
+        <v>1202777600</v>
       </c>
       <c r="C369" t="n">
-        <v>203607328</v>
+        <v>225070880</v>
       </c>
     </row>
     <row r="370">
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>921112640</v>
+        <v>814437696</v>
       </c>
       <c r="C370" t="n">
-        <v>334039520</v>
+        <v>244650192</v>
       </c>
     </row>
     <row r="371">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1594091648</v>
+        <v>1474018688</v>
       </c>
       <c r="C371" t="n">
-        <v>436834272</v>
+        <v>383189056</v>
       </c>
     </row>
     <row r="372">
@@ -5267,10 +5267,10 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>825641792</v>
+        <v>1156998400</v>
       </c>
       <c r="C372" t="n">
-        <v>146409808</v>
+        <v>404970496</v>
       </c>
     </row>
     <row r="373">
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1348754304</v>
+        <v>1251449600</v>
       </c>
       <c r="C373" t="n">
-        <v>90700472</v>
+        <v>285555264</v>
       </c>
     </row>
     <row r="374">
@@ -5293,10 +5293,10 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>841629376</v>
+        <v>641329024</v>
       </c>
       <c r="C374" t="n">
-        <v>461682048</v>
+        <v>326434272</v>
       </c>
     </row>
     <row r="375">
@@ -5306,10 +5306,10 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1322656128</v>
+        <v>1225472640</v>
       </c>
       <c r="C375" t="n">
-        <v>148416304</v>
+        <v>208530016</v>
       </c>
     </row>
     <row r="376">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>503040096</v>
+        <v>365993632</v>
       </c>
       <c r="C376" t="n">
-        <v>127648976</v>
+        <v>128825792</v>
       </c>
     </row>
     <row r="377">
@@ -5332,10 +5332,10 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1460730240</v>
+        <v>966045056</v>
       </c>
       <c r="C377" t="n">
-        <v>666668416</v>
+        <v>642508736</v>
       </c>
     </row>
     <row r="378">
@@ -5345,10 +5345,10 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1280333824</v>
+        <v>1467442048</v>
       </c>
       <c r="C378" t="n">
-        <v>780387776</v>
+        <v>497710272</v>
       </c>
     </row>
     <row r="379">
@@ -5358,10 +5358,10 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1650477696</v>
+        <v>1570221568</v>
       </c>
       <c r="C379" t="n">
-        <v>709938176</v>
+        <v>774159232</v>
       </c>
     </row>
     <row r="380">
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1113885312</v>
+        <v>1550996352</v>
       </c>
       <c r="C380" t="n">
-        <v>523169600</v>
+        <v>576025472</v>
       </c>
     </row>
   </sheetData>
